--- a/doc/rbf_results.xlsx
+++ b/doc/rbf_results.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="666">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -877,6 +877,9 @@
     <t xml:space="preserve">Pima_10</t>
   </si>
   <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">Popfailures_1</t>
   </si>
   <si>
@@ -1660,6 +1663,9 @@
     <t xml:space="preserve">FA</t>
   </si>
   <si>
+    <t xml:space="preserve">LASER</t>
+  </si>
+  <si>
     <t xml:space="preserve">MB</t>
   </si>
   <si>
@@ -1769,9 +1775,6 @@
   </si>
   <si>
     <t xml:space="preserve">IFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">Ring_1</t>
@@ -2148,7 +2151,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2185,39 +2188,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2252,8 +2247,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B187" activeCellId="0" sqref="B187"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B223" activeCellId="0" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2616,7 +2611,7 @@
       <c r="E23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <v>0.201</v>
       </c>
     </row>
@@ -2631,7 +2626,7 @@
       <c r="E24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <v>0.087</v>
       </c>
     </row>
@@ -2877,7 +2872,7 @@
       <c r="E40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="1" t="n">
         <v>1.217</v>
       </c>
     </row>
@@ -2892,7 +2887,7 @@
       <c r="E41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="1" t="n">
         <v>1.11</v>
       </c>
     </row>
@@ -2907,7 +2902,7 @@
       <c r="E42" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42" s="1" t="n">
         <v>0.945</v>
       </c>
     </row>
@@ -2922,7 +2917,7 @@
       <c r="E43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43" s="1" t="n">
         <v>1.018</v>
       </c>
     </row>
@@ -2937,7 +2932,7 @@
       <c r="E44" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="1" t="n">
         <v>1.32</v>
       </c>
     </row>
@@ -2952,7 +2947,7 @@
       <c r="E45" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="1" t="n">
         <v>1.052</v>
       </c>
     </row>
@@ -2967,7 +2962,7 @@
       <c r="E46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="1" t="n">
         <v>1.113</v>
       </c>
     </row>
@@ -2982,7 +2977,7 @@
       <c r="E47" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47" s="1" t="n">
         <v>1.197</v>
       </c>
     </row>
@@ -2997,6 +2992,9 @@
       <c r="E48" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="F48" s="0" t="n">
+        <v>0.968</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
@@ -3008,6 +3006,9 @@
       <c r="C49" s="5"/>
       <c r="E49" s="1" t="s">
         <v>83</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1.11</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3023,7 +3024,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="3" t="n">
         <f aca="false">AVERAGE(F40:F49)</f>
-        <v>1.1215</v>
+        <v>1.105</v>
       </c>
       <c r="G50" s="3" t="e">
         <f aca="false">AVERAGE(G40:G49)</f>
@@ -3230,7 +3231,7 @@
       <c r="E64" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F64" s="1" t="n">
         <v>0.267</v>
       </c>
     </row>
@@ -3245,7 +3246,7 @@
       <c r="E65" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F65" s="1" t="n">
         <v>0.291</v>
       </c>
     </row>
@@ -3260,7 +3261,7 @@
       <c r="E66" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66" s="1" t="n">
         <v>0.373</v>
       </c>
     </row>
@@ -3275,7 +3276,7 @@
       <c r="E67" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F67" s="1" t="n">
         <v>0.299</v>
       </c>
     </row>
@@ -3290,7 +3291,7 @@
       <c r="E68" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F68" s="1" t="n">
         <v>0.181</v>
       </c>
     </row>
@@ -3305,7 +3306,7 @@
       <c r="E69" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="F69" s="1" t="n">
         <v>0.125</v>
       </c>
     </row>
@@ -3320,7 +3321,7 @@
       <c r="E70" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70" s="1" t="n">
         <v>0.174</v>
       </c>
     </row>
@@ -3335,7 +3336,7 @@
       <c r="E71" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F71" s="0" t="n">
+      <c r="F71" s="1" t="n">
         <v>0.364</v>
       </c>
     </row>
@@ -3350,7 +3351,7 @@
       <c r="E72" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F72" s="0" t="n">
+      <c r="F72" s="1" t="n">
         <v>0.299</v>
       </c>
     </row>
@@ -3365,7 +3366,7 @@
       <c r="E73" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F73" s="0" t="n">
+      <c r="F73" s="1" t="n">
         <v>0.348</v>
       </c>
     </row>
@@ -4294,7 +4295,9 @@
       <c r="A130" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B130" s="0"/>
+      <c r="B130" s="1" t="n">
+        <v>1.087</v>
+      </c>
       <c r="E130" s="1" t="s">
         <v>217</v>
       </c>
@@ -4306,34 +4309,49 @@
       <c r="A131" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="B131" s="1" t="n">
+        <v>1.611</v>
+      </c>
       <c r="E131" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F131" s="1"/>
+      <c r="F131" s="1" t="n">
+        <v>2103.505</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="B132" s="1" t="n">
+        <v>0.662</v>
+      </c>
       <c r="E132" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F132" s="1"/>
+      <c r="F132" s="1" t="n">
+        <v>2531.48</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="B133" s="1" t="n">
+        <v>1.056</v>
+      </c>
       <c r="E133" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F133" s="1"/>
+      <c r="F133" s="1" t="n">
+        <v>1951.72</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4"/>
       <c r="B134" s="3" t="n">
         <f aca="false">AVERAGE(B124:B133)</f>
-        <v>1.2685</v>
+        <v>1.2027</v>
       </c>
       <c r="C134" s="3" t="e">
         <f aca="false">AVERAGE(C124:C133)</f>
@@ -4342,7 +4360,7 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3" t="n">
         <f aca="false">AVERAGE(F124:F133)</f>
-        <v>2719.34785714286</v>
+        <v>2562.214</v>
       </c>
       <c r="G134" s="3" t="e">
         <f aca="false">AVERAGE(G124:G133)</f>
@@ -4448,7 +4466,9 @@
       <c r="A141" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B141" s="5"/>
+      <c r="B141" s="5" t="n">
+        <v>0.1791</v>
+      </c>
       <c r="C141" s="5"/>
       <c r="E141" s="1" t="s">
         <v>235</v>
@@ -4461,7 +4481,9 @@
       <c r="A142" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B142" s="5"/>
+      <c r="B142" s="5" t="n">
+        <v>0.2289</v>
+      </c>
       <c r="C142" s="5"/>
       <c r="E142" s="1" t="s">
         <v>237</v>
@@ -4474,7 +4496,9 @@
       <c r="A143" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B143" s="5"/>
+      <c r="B143" s="5" t="n">
+        <v>0.1438</v>
+      </c>
       <c r="C143" s="5"/>
       <c r="E143" s="1" t="s">
         <v>239</v>
@@ -4487,7 +4511,9 @@
       <c r="A144" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B144" s="5"/>
+      <c r="B144" s="5" t="n">
+        <v>0.1876</v>
+      </c>
       <c r="C144" s="5"/>
       <c r="E144" s="1" t="s">
         <v>241</v>
@@ -4500,7 +4526,9 @@
       <c r="A145" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B145" s="5"/>
+      <c r="B145" s="5" t="n">
+        <v>0.1747</v>
+      </c>
       <c r="C145" s="5"/>
       <c r="E145" s="1" t="s">
         <v>243</v>
@@ -4513,7 +4541,7 @@
       <c r="A146" s="3"/>
       <c r="B146" s="4" t="n">
         <f aca="false">AVERAGE(B136:B145)</f>
-        <v>0.18746</v>
+        <v>0.18514</v>
       </c>
       <c r="C146" s="4" t="e">
         <f aca="false">AVERAGE(C136:C145)</f>
@@ -4797,73 +4825,93 @@
       <c r="A165" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B165" s="5"/>
+      <c r="B165" s="5" t="n">
+        <v>0.1175</v>
+      </c>
       <c r="C165" s="5"/>
       <c r="E165" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F165" s="5"/>
+      <c r="F165" s="5" t="n">
+        <v>0.2513</v>
+      </c>
       <c r="G165" s="5"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B166" s="5"/>
+      <c r="B166" s="5" t="n">
+        <v>0.107</v>
+      </c>
       <c r="C166" s="5"/>
       <c r="E166" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F166" s="5"/>
+      <c r="F166" s="5" t="n">
+        <v>0.2285</v>
+      </c>
       <c r="G166" s="5"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B167" s="5"/>
+      <c r="B167" s="5" t="n">
+        <v>0.214</v>
+      </c>
       <c r="C167" s="5"/>
       <c r="E167" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F167" s="5"/>
+      <c r="F167" s="5" t="n">
+        <v>0.2632</v>
+      </c>
       <c r="G167" s="5"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B168" s="5"/>
+      <c r="B168" s="5" t="n">
+        <v>0.1456</v>
+      </c>
       <c r="C168" s="5"/>
       <c r="E168" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F168" s="5"/>
+      <c r="F168" s="5" t="n">
+        <v>0.257</v>
+      </c>
       <c r="G168" s="5"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B169" s="5"/>
+      <c r="B169" s="5" t="n">
+        <v>0.0772</v>
+      </c>
       <c r="C169" s="5"/>
       <c r="E169" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F169" s="5"/>
+      <c r="F169" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="G169" s="5"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3"/>
       <c r="B170" s="4" t="n">
         <f aca="false">AVERAGE(B160:B169)</f>
-        <v>0.19684</v>
+        <v>0.16455</v>
       </c>
       <c r="C170" s="4"/>
       <c r="E170" s="3"/>
       <c r="F170" s="4" t="n">
         <f aca="false">AVERAGE(F160:F169)</f>
-        <v>0.22316</v>
+        <v>0.235088888888889</v>
       </c>
       <c r="G170" s="4"/>
     </row>
@@ -4889,14 +4937,14 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B172" s="5" t="n">
         <v>0.1093</v>
       </c>
       <c r="C172" s="5"/>
       <c r="E172" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F172" s="5" t="n">
         <v>0.3285</v>
@@ -4905,126 +4953,132 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B173" s="5" t="n">
         <v>0.1068</v>
       </c>
       <c r="C173" s="5"/>
       <c r="E173" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F173" s="5"/>
+        <v>288</v>
+      </c>
+      <c r="F173" s="5" t="n">
+        <v>0.3581</v>
+      </c>
       <c r="G173" s="5"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B174" s="5" t="n">
         <v>0.034</v>
       </c>
       <c r="C174" s="5"/>
       <c r="E174" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F174" s="5"/>
+        <v>290</v>
+      </c>
+      <c r="F174" s="5" t="n">
+        <v>0.3457</v>
+      </c>
       <c r="G174" s="5"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B175" s="5" t="n">
         <v>0.0185</v>
       </c>
       <c r="C175" s="5"/>
       <c r="E175" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F175" s="5"/>
+        <v>292</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="G175" s="5"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B176" s="5" t="n">
         <v>0.0716</v>
       </c>
       <c r="C176" s="5"/>
       <c r="E176" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B177" s="5" t="n">
         <v>0.0735</v>
       </c>
       <c r="C177" s="5"/>
       <c r="E177" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B178" s="5" t="n">
         <v>0.0741</v>
       </c>
       <c r="C178" s="5"/>
       <c r="E178" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B179" s="5" t="n">
         <v>0.0716</v>
       </c>
       <c r="C179" s="5"/>
       <c r="E179" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B180" s="5" t="n">
         <v>0.05</v>
       </c>
       <c r="C180" s="5"/>
       <c r="E180" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B181" s="5" t="n">
         <v>0.0722</v>
       </c>
       <c r="C181" s="5"/>
       <c r="E181" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
@@ -5039,7 +5093,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="4" t="n">
         <f aca="false">AVERAGE(F172:F181)</f>
-        <v>0.3285</v>
+        <v>0.3441</v>
       </c>
       <c r="G182" s="4"/>
     </row>
@@ -5063,14 +5117,14 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B184" s="5" t="n">
         <v>0.3312</v>
       </c>
       <c r="C184" s="5"/>
       <c r="E184" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F184" s="5" t="n">
         <v>0.5759</v>
@@ -5079,112 +5133,132 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B185" s="5" t="n">
         <v>0.3029</v>
       </c>
       <c r="C185" s="5"/>
       <c r="E185" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F185" s="5"/>
+        <v>308</v>
+      </c>
+      <c r="F185" s="5" t="n">
+        <v>0.5857</v>
+      </c>
       <c r="G185" s="5"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B186" s="5" t="n">
         <v>0.4014</v>
       </c>
       <c r="C186" s="5"/>
       <c r="E186" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F186" s="5"/>
+        <v>310</v>
+      </c>
+      <c r="F186" s="5" t="n">
+        <v>0.5693</v>
+      </c>
       <c r="G186" s="5"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B187" s="5"/>
+        <v>311</v>
+      </c>
+      <c r="B187" s="5" t="n">
+        <v>0.3565</v>
+      </c>
       <c r="C187" s="5"/>
       <c r="E187" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F187" s="5"/>
+        <v>312</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="G187" s="5"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B188" s="5"/>
+        <v>313</v>
+      </c>
+      <c r="B188" s="5" t="n">
+        <v>0.1891</v>
+      </c>
       <c r="C188" s="5"/>
       <c r="E188" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B189" s="5"/>
+        <v>315</v>
+      </c>
+      <c r="B189" s="5" t="n">
+        <v>0.3043</v>
+      </c>
       <c r="C189" s="5"/>
       <c r="E189" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B190" s="5"/>
+        <v>317</v>
+      </c>
+      <c r="B190" s="5" t="n">
+        <v>0.3754</v>
+      </c>
       <c r="C190" s="5"/>
       <c r="E190" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B191" s="5"/>
+        <v>319</v>
+      </c>
+      <c r="B191" s="5" t="n">
+        <v>0.3725</v>
+      </c>
       <c r="C191" s="5"/>
       <c r="E191" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B192" s="5"/>
+        <v>321</v>
+      </c>
+      <c r="B192" s="5" t="n">
+        <v>0.2478</v>
+      </c>
       <c r="C192" s="5"/>
       <c r="E192" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B193" s="5"/>
+        <v>323</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="C193" s="5"/>
       <c r="E193" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
@@ -5193,13 +5267,13 @@
       <c r="A194" s="3"/>
       <c r="B194" s="4" t="n">
         <f aca="false">AVERAGE(B184:B193)</f>
-        <v>0.345166666666667</v>
+        <v>0.320122222222222</v>
       </c>
       <c r="C194" s="4"/>
       <c r="E194" s="3"/>
       <c r="F194" s="4" t="n">
         <f aca="false">AVERAGE(F184:F193)</f>
-        <v>0.5759</v>
+        <v>0.576966666666667</v>
       </c>
       <c r="G194" s="4"/>
     </row>
@@ -5221,135 +5295,169 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B196" s="5"/>
+        <v>325</v>
+      </c>
+      <c r="B196" s="5" t="n">
+        <v>0.5978</v>
+      </c>
       <c r="C196" s="5"/>
       <c r="E196" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F196" s="5"/>
+        <v>326</v>
+      </c>
+      <c r="F196" s="5" t="n">
+        <v>0.08</v>
+      </c>
       <c r="G196" s="5"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B197" s="5"/>
+        <v>327</v>
+      </c>
+      <c r="B197" s="5" t="n">
+        <v>0.5022</v>
+      </c>
       <c r="C197" s="5"/>
       <c r="E197" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F197" s="5"/>
+        <v>328</v>
+      </c>
+      <c r="F197" s="5" t="n">
+        <v>0.4</v>
+      </c>
       <c r="G197" s="5"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B198" s="5"/>
+        <v>329</v>
+      </c>
+      <c r="B198" s="5" t="n">
+        <v>0.6489</v>
+      </c>
       <c r="C198" s="5"/>
       <c r="E198" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F198" s="5"/>
+        <v>330</v>
+      </c>
+      <c r="F198" s="5" t="n">
+        <v>0.4067</v>
+      </c>
       <c r="G198" s="5"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B199" s="5"/>
+        <v>331</v>
+      </c>
+      <c r="B199" s="5" t="n">
+        <v>0.6133</v>
+      </c>
       <c r="C199" s="5"/>
       <c r="E199" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F199" s="5"/>
+        <v>332</v>
+      </c>
+      <c r="F199" s="5" t="n">
+        <v>0.28</v>
+      </c>
       <c r="G199" s="5"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B200" s="5"/>
+        <v>333</v>
+      </c>
+      <c r="B200" s="5" t="n">
+        <v>0.7044</v>
+      </c>
       <c r="C200" s="5"/>
       <c r="E200" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F200" s="5"/>
+        <v>334</v>
+      </c>
+      <c r="F200" s="5" t="n">
+        <v>0.2267</v>
+      </c>
       <c r="G200" s="5"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B201" s="5"/>
+        <v>335</v>
+      </c>
+      <c r="B201" s="5" t="n">
+        <v>0.7489</v>
+      </c>
       <c r="C201" s="5"/>
       <c r="E201" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F201" s="5"/>
+        <v>336</v>
+      </c>
+      <c r="F201" s="5" t="n">
+        <v>0.2183</v>
+      </c>
       <c r="G201" s="5"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B202" s="5"/>
+        <v>337</v>
+      </c>
+      <c r="B202" s="5" t="n">
+        <v>0.6533</v>
+      </c>
       <c r="C202" s="5"/>
       <c r="E202" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F202" s="5"/>
+        <v>338</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="G202" s="5"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B203" s="5"/>
+        <v>339</v>
+      </c>
+      <c r="B203" s="5" t="n">
+        <v>0.4511</v>
+      </c>
       <c r="C203" s="5"/>
       <c r="E203" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B204" s="5"/>
+        <v>341</v>
+      </c>
+      <c r="B204" s="5" t="n">
+        <v>0.7</v>
+      </c>
       <c r="C204" s="5"/>
       <c r="E204" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B205" s="5"/>
+        <v>343</v>
+      </c>
+      <c r="B205" s="5" t="n">
+        <v>0.3556</v>
+      </c>
       <c r="C205" s="5"/>
       <c r="E205" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3"/>
-      <c r="B206" s="4" t="e">
+      <c r="B206" s="4" t="n">
         <f aca="false">AVERAGE(B196:B205)</f>
-        <v>#DIV/0!</v>
+        <v>0.59755</v>
       </c>
       <c r="C206" s="4"/>
       <c r="E206" s="3"/>
-      <c r="F206" s="4" t="e">
+      <c r="F206" s="4" t="n">
         <f aca="false">AVERAGE(F196:F205)</f>
-        <v>#DIV/0!</v>
+        <v>0.268616666666667</v>
       </c>
       <c r="G206" s="4"/>
     </row>
@@ -5371,135 +5479,151 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B208" s="5"/>
+        <v>345</v>
+      </c>
+      <c r="B208" s="5" t="n">
+        <v>0.4537</v>
+      </c>
       <c r="C208" s="5"/>
       <c r="E208" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F208" s="5"/>
+        <v>346</v>
+      </c>
+      <c r="F208" s="5" t="n">
+        <v>0.3333</v>
+      </c>
       <c r="G208" s="5"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B209" s="5"/>
+        <v>347</v>
+      </c>
+      <c r="B209" s="5" t="n">
+        <v>0.4675</v>
+      </c>
       <c r="C209" s="5"/>
       <c r="E209" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F209" s="5"/>
+        <v>348</v>
+      </c>
+      <c r="F209" s="5" t="n">
+        <v>0.2745</v>
+      </c>
       <c r="G209" s="5"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B210" s="5"/>
+        <v>349</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="C210" s="5"/>
       <c r="E210" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F210" s="5"/>
+        <v>350</v>
+      </c>
+      <c r="F210" s="5" t="n">
+        <v>0.3843</v>
+      </c>
       <c r="G210" s="5"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
       <c r="E211" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F211" s="5"/>
+        <v>352</v>
+      </c>
+      <c r="F211" s="5" t="n">
+        <v>0.3745</v>
+      </c>
       <c r="G211" s="5"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
       <c r="E212" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F212" s="5"/>
+        <v>354</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="G212" s="5"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
       <c r="E213" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
       <c r="E214" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
       <c r="E215" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
       <c r="E216" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
       <c r="E217" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3"/>
-      <c r="B218" s="4" t="e">
+      <c r="B218" s="4" t="n">
         <f aca="false">AVERAGE(B208:B217)</f>
-        <v>#DIV/0!</v>
+        <v>0.4606</v>
       </c>
       <c r="C218" s="4"/>
       <c r="E218" s="3"/>
-      <c r="F218" s="4" t="e">
+      <c r="F218" s="4" t="n">
         <f aca="false">AVERAGE(F208:F217)</f>
-        <v>#DIV/0!</v>
+        <v>0.34165</v>
       </c>
       <c r="G218" s="4"/>
     </row>
@@ -5521,129 +5645,137 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B220" s="5"/>
+        <v>365</v>
+      </c>
+      <c r="B220" s="5" t="n">
+        <v>0.0333</v>
+      </c>
       <c r="C220" s="5"/>
       <c r="E220" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F220" s="5"/>
+        <v>366</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="G220" s="5"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B221" s="5"/>
+        <v>367</v>
+      </c>
+      <c r="B221" s="5" t="n">
+        <v>0.0193</v>
+      </c>
       <c r="C221" s="5"/>
       <c r="E221" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B222" s="5"/>
+        <v>369</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="C222" s="5"/>
       <c r="E222" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
       <c r="E223" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
       <c r="E224" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
       <c r="E225" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
       <c r="E226" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
       <c r="E227" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
       <c r="E228" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
       <c r="E229" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4"/>
-      <c r="B230" s="4" t="e">
+      <c r="B230" s="4" t="n">
         <f aca="false">AVERAGE(B220:B229)</f>
-        <v>#DIV/0!</v>
+        <v>0.0263</v>
       </c>
       <c r="C230" s="4"/>
       <c r="E230" s="3"/>
@@ -5671,120 +5803,120 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
       <c r="E232" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
       <c r="E233" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
       <c r="E234" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
       <c r="E235" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
       <c r="E236" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
       <c r="E237" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
       <c r="E238" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="E239" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="E240" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
       <c r="E241" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
@@ -5821,111 +5953,111 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
       <c r="E244" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F244" s="1"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
       <c r="E245" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F245" s="1"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
       <c r="E246" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F246" s="1"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
       <c r="E247" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F247" s="1"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
       <c r="E248" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F248" s="1"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
       <c r="E249" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F249" s="1"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
       <c r="E250" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F250" s="1"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
       <c r="E251" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F251" s="1"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
       <c r="E252" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F252" s="1"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
       <c r="E253" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F253" s="1"/>
     </row>
@@ -5961,91 +6093,91 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F256" s="1"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F257" s="1"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F258" s="1"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F259" s="1"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F260" s="1"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F261" s="1"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F262" s="1"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F263" s="1"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F264" s="1"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F265" s="1"/>
     </row>
@@ -6081,91 +6213,91 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F268" s="1"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F269" s="1"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F270" s="1"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F271" s="1"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F272" s="1"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F273" s="1"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F274" s="1"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F275" s="1"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F276" s="1"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F277" s="1"/>
     </row>
@@ -6201,91 +6333,91 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F281" s="1"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F282" s="1"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F283" s="1"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F284" s="1"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F285" s="1"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F286" s="1"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F287" s="1"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F288" s="1"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F289" s="1"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F290" s="1"/>
     </row>
@@ -6321,91 +6453,91 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F294" s="1"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F295" s="1"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F296" s="1"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F297" s="1"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F298" s="1"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F299" s="1"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F300" s="1"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F301" s="1"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F302" s="1"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F303" s="1"/>
     </row>
@@ -6462,262 +6594,266 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD52"/>
+  <dimension ref="A1:XFD53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="15.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="13.81"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16378" min="3" style="9" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
-        <v>504</v>
+      <c r="A1" s="6"/>
+      <c r="B1" s="10" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="B3" s="13" t="n">
+      <c r="A3" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B3" s="12" t="n">
         <v>0.1393</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="B4" s="13" t="n">
+      <c r="A4" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B4" s="12" t="n">
         <v>0.3118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="B5" s="13" t="n">
+      <c r="A5" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" s="12" t="n">
         <v>0.2484</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="B6" s="13" t="n">
+      <c r="A6" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>0.3522</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="B7" s="13" t="n">
+      <c r="A7" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>0.6579</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="B8" s="13" t="n">
+      <c r="A8" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="B8" s="12" t="n">
         <v>0.5181</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="B9" s="13" t="n">
+      <c r="A9" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="B9" s="12" t="n">
         <v>0.5627</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="B10" s="13" t="n">
+      <c r="A10" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="B10" s="12" t="n">
         <v>0.5445</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="B11" s="13" t="n">
+      <c r="A11" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="B11" s="12" t="n">
         <v>0.2659</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="B12" s="13" t="n">
+      <c r="A12" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="B12" s="12" t="n">
         <v>0.4831</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="B13" s="13" t="n">
+      <c r="A13" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="B13" s="12" t="n">
         <v>0.2912</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="B14" s="13" t="n">
+      <c r="A14" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="B14" s="12" t="n">
         <v>0.0341</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="B15" s="13" t="n">
+      <c r="A15" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B15" s="12" t="n">
         <v>0.1183</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="B16" s="13" t="n">
+      <c r="A16" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="B16" s="12" t="n">
         <v>0.2851</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="B17" s="13" t="n">
+      <c r="A17" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="B17" s="12" t="n">
         <v>0.1874</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="B18" s="13"/>
+      <c r="A18" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="B18" s="12" t="n">
+        <v>0.1851</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="B19" s="13"/>
+      <c r="A19" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B19" s="12" t="n">
+        <v>0.1646</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="B20" s="13"/>
+      <c r="A20" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="B21" s="13" t="n">
+      <c r="A21" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="B21" s="12" t="n">
         <v>0.0682</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="B22" s="13"/>
+      <c r="A22" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="B23" s="13"/>
+      <c r="A23" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="B24" s="13"/>
+      <c r="A24" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="B25" s="13"/>
+      <c r="A25" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="B26" s="13"/>
+      <c r="A26" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="B27" s="13"/>
+      <c r="A27" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="B28" s="13"/>
+      <c r="A28" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="B29" s="13"/>
+      <c r="A29" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="B29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="B30" s="13"/>
-    </row>
-    <row r="31" s="14" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="15" t="n">
+      <c r="A30" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" s="13" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="14" t="n">
         <f aca="false">AVERAGE(B3:B30)</f>
-        <v>0.3167625</v>
-      </c>
-      <c r="XEY31" s="0"/>
-      <c r="XEZ31" s="0"/>
-      <c r="XFA31" s="0"/>
-      <c r="XFB31" s="0"/>
-      <c r="XFC31" s="0"/>
-      <c r="XFD31" s="0"/>
-    </row>
-    <row r="32" s="14" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="15"/>
-      <c r="XEY32" s="0"/>
-      <c r="XEZ32" s="0"/>
-      <c r="XFA32" s="0"/>
-      <c r="XFB32" s="0"/>
-      <c r="XFC32" s="0"/>
-      <c r="XFD32" s="0"/>
+        <v>0.300994444444444</v>
+      </c>
+      <c r="XEY31" s="1"/>
+      <c r="XEZ31" s="1"/>
+      <c r="XFA31" s="1"/>
+      <c r="XFB31" s="1"/>
+      <c r="XFC31" s="1"/>
+      <c r="XFD31" s="1"/>
+    </row>
+    <row r="32" s="13" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="14"/>
+      <c r="XEY32" s="1"/>
+      <c r="XEZ32" s="1"/>
+      <c r="XFA32" s="1"/>
+      <c r="XFB32" s="1"/>
+      <c r="XFC32" s="1"/>
+      <c r="XFD32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="10" t="s">
-        <v>534</v>
+      <c r="B33" s="6" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C34" s="9" t="n">
         <v>417</v>
@@ -6725,7 +6861,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C35" s="9" t="n">
         <v>150</v>
@@ -6733,7 +6869,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C36" s="9" t="n">
         <v>33</v>
@@ -6741,7 +6877,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B37" s="9" t="n">
         <f aca="false">0.1684/9</f>
@@ -6753,7 +6889,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B38" s="9" t="n">
         <f aca="false">0.012068/4</f>
@@ -6765,7 +6901,11 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>540</v>
+        <v>541</v>
+      </c>
+      <c r="B39" s="9" t="n">
+        <f aca="false">1.105/103</f>
+        <v>0.0107281553398058</v>
       </c>
       <c r="C39" s="9" t="n">
         <v>103</v>
@@ -6773,7 +6913,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C40" s="9" t="n">
         <v>36</v>
@@ -6781,7 +6921,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C41" s="9" t="n">
         <v>4</v>
@@ -6789,7 +6929,11 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>543</v>
+        <v>544</v>
+      </c>
+      <c r="B42" s="9" t="n">
+        <f aca="false">2562.214/50</f>
+        <v>51.24428</v>
       </c>
       <c r="C42" s="9" t="n">
         <v>50</v>
@@ -6797,7 +6941,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B43" s="9" t="n">
         <f aca="false">0.2721/25</f>
@@ -6809,89 +6953,101 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B44" s="9" t="n">
+        <f aca="false">1.2027/99</f>
+        <v>0.0121484848484849</v>
+      </c>
+      <c r="C44" s="9" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B45" s="9" t="n">
         <f aca="false">5.5007/6</f>
         <v>0.916783333333333</v>
       </c>
-      <c r="C44" s="9" t="n">
+      <c r="C45" s="9" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="C45" s="9" t="n">
-        <v>104</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="B46" s="9" t="n">
+        <v>548</v>
+      </c>
+      <c r="C46" s="9" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B47" s="9" t="n">
         <f aca="false">1.43979/13</f>
         <v>0.110753076923077</v>
       </c>
-      <c r="C46" s="9" t="n">
+      <c r="C47" s="9" t="n">
         <v>13</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="C47" s="9" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C48" s="9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="C49" s="9" t="n">
         <v>217</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="C49" s="9" t="n">
-        <v>104</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C50" s="9" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="C51" s="9" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="51" s="16" customFormat="true" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14" t="n">
-        <f aca="false">AVERAGE(B34:B50)</f>
-        <v>0.212029704273504</v>
-      </c>
-      <c r="C51" s="14"/>
-      <c r="XEY51" s="0"/>
-      <c r="XEZ51" s="0"/>
-      <c r="XFA51" s="0"/>
-      <c r="XFB51" s="0"/>
-      <c r="XFC51" s="0"/>
-      <c r="XFD51" s="0"/>
-    </row>
-    <row r="52" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="XEY52" s="0"/>
-      <c r="XEZ52" s="0"/>
-      <c r="XFA52" s="0"/>
-      <c r="XFB52" s="0"/>
-      <c r="XFC52" s="0"/>
-      <c r="XFD52" s="0"/>
+    <row r="52" s="15" customFormat="true" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13" t="n">
+        <f aca="false">AVERAGE(B34:B51)</f>
+        <v>6.54091314519448</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="XEY52" s="1"/>
+      <c r="XEZ52" s="1"/>
+      <c r="XFA52" s="1"/>
+      <c r="XFB52" s="1"/>
+      <c r="XFC52" s="1"/>
+      <c r="XFD52" s="1"/>
+    </row>
+    <row r="53" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="XEY53" s="1"/>
+      <c r="XEZ53" s="1"/>
+      <c r="XFA53" s="1"/>
+      <c r="XFB53" s="1"/>
+      <c r="XFC53" s="1"/>
+      <c r="XFD53" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6917,46 +7073,46 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="17" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="18" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="9" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="B2" s="17" t="n">
+      <c r="A2" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2" s="9" t="n">
         <v>12.23</v>
       </c>
-      <c r="C2" s="17" t="n">
+      <c r="C2" s="9" t="n">
         <v>16.03</v>
       </c>
-      <c r="D2" s="17" t="n">
+      <c r="D2" s="9" t="n">
         <v>15.07</v>
       </c>
-      <c r="E2" s="18" t="n">
+      <c r="E2" s="16" t="n">
         <f aca="false">(B2-C2)/B2</f>
         <v>-0.310711365494685</v>
       </c>
@@ -6966,16 +7122,16 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
-        <v>507</v>
-      </c>
-      <c r="B3" s="17" t="n">
+      <c r="A3" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B3" s="9" t="n">
         <v>34.89</v>
       </c>
-      <c r="C3" s="17" t="n">
+      <c r="C3" s="9" t="n">
         <v>22.97</v>
       </c>
-      <c r="E3" s="18" t="n">
+      <c r="E3" s="16" t="n">
         <f aca="false">(B3-C3)/B3</f>
         <v>0.34164517053597</v>
       </c>
@@ -6985,16 +7141,16 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
-        <v>508</v>
-      </c>
-      <c r="B4" s="17" t="n">
+      <c r="A4" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B4" s="9" t="n">
         <v>33.42</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="9" t="n">
         <v>12.88</v>
       </c>
-      <c r="E4" s="18" t="n">
+      <c r="E4" s="16" t="n">
         <f aca="false">(B4-C4)/B4</f>
         <v>0.614602034709755</v>
       </c>
@@ -7004,19 +7160,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="B5" s="17" t="n">
+      <c r="A5" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B5" s="9" t="n">
         <v>0.1645</v>
       </c>
-      <c r="C5" s="17" t="n">
+      <c r="C5" s="9" t="n">
         <v>0.2761</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="9" t="n">
         <v>0.2279</v>
       </c>
-      <c r="E5" s="18" t="n">
+      <c r="E5" s="16" t="n">
         <f aca="false">(B5-C5)/B5</f>
         <v>-0.678419452887538</v>
       </c>
@@ -7026,19 +7182,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="B6" s="17" t="n">
+      <c r="A6" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B6" s="9" t="n">
         <v>0.05097</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="C6" s="9" t="n">
         <v>0.00122</v>
       </c>
-      <c r="D6" s="17" t="n">
+      <c r="D6" s="9" t="n">
         <v>0.00089</v>
       </c>
-      <c r="E6" s="18" t="n">
+      <c r="E6" s="16" t="n">
         <f aca="false">(B6-C6)/B6</f>
         <v>0.97606435157936</v>
       </c>
@@ -7048,16 +7204,16 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
-        <v>509</v>
-      </c>
-      <c r="B7" s="17" t="n">
+      <c r="A7" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B7" s="9" t="n">
         <v>37.22</v>
       </c>
-      <c r="C7" s="17" t="n">
+      <c r="C7" s="9" t="n">
         <v>36.21</v>
       </c>
-      <c r="E7" s="18" t="n">
+      <c r="E7" s="16" t="n">
         <f aca="false">(B7-C7)/B7</f>
         <v>0.0271359484148307</v>
       </c>
@@ -7067,16 +7223,16 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="B8" s="17" t="n">
+      <c r="A8" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B8" s="9" t="n">
         <v>67.1</v>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="C8" s="9" t="n">
         <v>51.75</v>
       </c>
-      <c r="E8" s="18" t="n">
+      <c r="E8" s="16" t="n">
         <f aca="false">(B8-C8)/B8</f>
         <v>0.22876304023845</v>
       </c>
@@ -7086,16 +7242,16 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="B9" s="17" t="n">
+      <c r="A9" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B9" s="9" t="n">
         <v>1.152</v>
       </c>
-      <c r="C9" s="17" t="n">
+      <c r="C9" s="9" t="n">
         <v>0.5167</v>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="16" t="n">
         <f aca="false">(B9-C9)/B9</f>
         <v>0.551475694444444</v>
       </c>
@@ -7105,16 +7261,16 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="B10" s="17" t="n">
+      <c r="A10" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B10" s="9" t="n">
         <v>62.34</v>
       </c>
-      <c r="C10" s="17" t="n">
+      <c r="C10" s="9" t="n">
         <v>37.37</v>
       </c>
-      <c r="E10" s="18" t="n">
+      <c r="E10" s="16" t="n">
         <f aca="false">(B10-C10)/B10</f>
         <v>0.400545396214309</v>
       </c>
@@ -7124,16 +7280,16 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
-        <v>557</v>
-      </c>
-      <c r="B11" s="17" t="n">
+      <c r="A11" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B11" s="9" t="n">
         <v>49.24</v>
       </c>
-      <c r="C11" s="17" t="n">
+      <c r="C11" s="9" t="n">
         <v>21.86</v>
       </c>
-      <c r="E11" s="18" t="n">
+      <c r="E11" s="16" t="n">
         <f aca="false">(B11-C11)/B11</f>
         <v>0.556051990251828</v>
       </c>
@@ -7143,16 +7299,16 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="B12" s="17" t="n">
+      <c r="A12" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B12" s="9" t="n">
         <v>59.59</v>
       </c>
-      <c r="C12" s="17" t="n">
+      <c r="C12" s="9" t="n">
         <v>56.46</v>
       </c>
-      <c r="E12" s="18" t="n">
+      <c r="E12" s="16" t="n">
         <f aca="false">(B12-C12)/B12</f>
         <v>0.0525255915422051</v>
       </c>
@@ -7162,16 +7318,16 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="B13" s="17" t="n">
+      <c r="A13" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B13" s="9" t="n">
         <v>50.16</v>
       </c>
-      <c r="C13" s="17" t="n">
+      <c r="C13" s="9" t="n">
         <v>49.16</v>
       </c>
-      <c r="E13" s="18" t="n">
+      <c r="E13" s="16" t="n">
         <f aca="false">(B13-C13)/B13</f>
         <v>0.0199362041467305</v>
       </c>
@@ -7181,16 +7337,16 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="B14" s="17" t="n">
+      <c r="A14" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B14" s="9" t="n">
         <v>25.1</v>
       </c>
-      <c r="C14" s="17" t="n">
+      <c r="C14" s="9" t="n">
         <v>28.57</v>
       </c>
-      <c r="E14" s="18" t="n">
+      <c r="E14" s="16" t="n">
         <f aca="false">(B14-C14)/B14</f>
         <v>-0.138247011952191</v>
       </c>
@@ -7200,16 +7356,16 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="B15" s="17" t="n">
+      <c r="A15" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B15" s="9" t="n">
         <v>64.36</v>
       </c>
-      <c r="C15" s="17" t="n">
+      <c r="C15" s="9" t="n">
         <v>35.26</v>
       </c>
-      <c r="E15" s="18" t="n">
+      <c r="E15" s="16" t="n">
         <f aca="false">(B15-C15)/B15</f>
         <v>0.452144188937228</v>
       </c>
@@ -7219,16 +7375,16 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="B16" s="17" t="n">
+      <c r="A16" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B16" s="9" t="n">
         <v>31.2</v>
       </c>
-      <c r="C16" s="17" t="n">
+      <c r="C16" s="9" t="n">
         <v>17.8</v>
       </c>
-      <c r="E16" s="18" t="n">
+      <c r="E16" s="16" t="n">
         <f aca="false">(B16-C16)/B16</f>
         <v>0.429487179487179</v>
       </c>
@@ -7238,16 +7394,16 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="B17" s="17" t="n">
+      <c r="A17" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B17" s="9" t="n">
         <v>6.13</v>
       </c>
-      <c r="C17" s="17" t="n">
+      <c r="C17" s="9" t="n">
         <v>3.67</v>
       </c>
-      <c r="E17" s="18" t="n">
+      <c r="E17" s="16" t="n">
         <f aca="false">(B17-C17)/B17</f>
         <v>0.401305057096248</v>
       </c>
@@ -7257,16 +7413,16 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="B18" s="17" t="n">
+      <c r="A18" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B18" s="9" t="n">
         <v>16.22</v>
       </c>
-      <c r="C18" s="17" t="n">
+      <c r="C18" s="9" t="n">
         <v>10.33</v>
       </c>
-      <c r="E18" s="18" t="n">
+      <c r="E18" s="16" t="n">
         <f aca="false">(B18-C18)/B18</f>
         <v>0.363131935881628</v>
       </c>
@@ -7276,16 +7432,16 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="B19" s="17" t="n">
+      <c r="A19" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B19" s="9" t="n">
         <v>30.84</v>
       </c>
-      <c r="C19" s="17" t="n">
+      <c r="C19" s="9" t="n">
         <v>28.73</v>
       </c>
-      <c r="E19" s="18" t="n">
+      <c r="E19" s="16" t="n">
         <f aca="false">(B19-C19)/B19</f>
         <v>0.0684176394293126</v>
       </c>
@@ -7295,16 +7451,16 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="B20" s="17" t="n">
+      <c r="A20" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B20" s="9" t="n">
         <v>25.31</v>
       </c>
-      <c r="C20" s="17" t="n">
+      <c r="C20" s="9" t="n">
         <v>27.95</v>
       </c>
-      <c r="E20" s="18" t="n">
+      <c r="E20" s="16" t="n">
         <f aca="false">(B20-C20)/B20</f>
         <v>-0.104306598182537</v>
       </c>
@@ -7314,16 +7470,16 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
-        <v>560</v>
-      </c>
-      <c r="B21" s="17" t="n">
+      <c r="A21" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B21" s="9" t="n">
         <v>2.351</v>
       </c>
-      <c r="C21" s="17" t="n">
+      <c r="C21" s="9" t="n">
         <v>1.0395</v>
       </c>
-      <c r="E21" s="18" t="n">
+      <c r="E21" s="16" t="n">
         <f aca="false">(B21-C21)/B21</f>
         <v>0.557847724372607</v>
       </c>
@@ -7333,16 +7489,16 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
-        <v>561</v>
-      </c>
-      <c r="B22" s="17" t="n">
+      <c r="A22" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B22" s="9" t="n">
         <v>2884.086</v>
       </c>
-      <c r="C22" s="17" t="n">
+      <c r="C22" s="9" t="n">
         <v>693.22</v>
       </c>
-      <c r="E22" s="18" t="n">
+      <c r="E22" s="16" t="n">
         <f aca="false">(B22-C22)/B22</f>
         <v>0.759639622396836</v>
       </c>
@@ -7352,16 +7508,16 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="B23" s="17" t="n">
+      <c r="A23" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B23" s="9" t="n">
         <v>21.38</v>
       </c>
-      <c r="C23" s="17" t="n">
+      <c r="C23" s="9" t="n">
         <v>17.25</v>
       </c>
-      <c r="E23" s="18" t="n">
+      <c r="E23" s="16" t="n">
         <f aca="false">(B23-C23)/B23</f>
         <v>0.193171188026193</v>
       </c>
@@ -7371,16 +7527,16 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="B24" s="17" t="n">
+      <c r="A24" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B24" s="9" t="n">
         <v>11.3282</v>
       </c>
-      <c r="C24" s="17" t="n">
+      <c r="C24" s="9" t="n">
         <v>0.6289</v>
       </c>
-      <c r="E24" s="18" t="n">
+      <c r="E24" s="16" t="n">
         <f aca="false">(B24-C24)/B24</f>
         <v>0.944483677901167</v>
       </c>
@@ -7390,16 +7546,16 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
-        <v>547</v>
-      </c>
-      <c r="B25" s="17" t="n">
+      <c r="A25" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B25" s="9" t="n">
         <v>72.1384</v>
       </c>
-      <c r="C25" s="17" t="n">
+      <c r="C25" s="9" t="n">
         <v>0.08526</v>
       </c>
-      <c r="E25" s="18" t="n">
+      <c r="E25" s="16" t="n">
         <f aca="false">(B25-C25)/B25</f>
         <v>0.998818105197786</v>
       </c>
@@ -7409,16 +7565,16 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="B26" s="17" t="n">
+      <c r="A26" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B26" s="9" t="n">
         <v>17.41</v>
       </c>
-      <c r="C26" s="17" t="n">
+      <c r="C26" s="9" t="n">
         <v>17.37</v>
       </c>
-      <c r="E26" s="18" t="n">
+      <c r="E26" s="16" t="n">
         <f aca="false">(B26-C26)/B26</f>
         <v>0.00229753015508324</v>
       </c>
@@ -7428,16 +7584,16 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="B27" s="17" t="n">
+      <c r="A27" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B27" s="9" t="n">
         <v>25.78</v>
       </c>
-      <c r="C27" s="17" t="n">
+      <c r="C27" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="E27" s="18" t="n">
+      <c r="E27" s="16" t="n">
         <f aca="false">(B27-C27)/B27</f>
         <v>0.0690457719162142</v>
       </c>
@@ -7447,16 +7603,16 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="B28" s="17" t="n">
+      <c r="A28" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B28" s="9" t="n">
         <v>21.65</v>
       </c>
-      <c r="C28" s="17" t="n">
+      <c r="C28" s="9" t="n">
         <v>2.09</v>
       </c>
-      <c r="E28" s="18" t="n">
+      <c r="E28" s="16" t="n">
         <f aca="false">(B28-C28)/B28</f>
         <v>0.903464203233256</v>
       </c>
@@ -7466,16 +7622,16 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="B29" s="17" t="n">
+      <c r="A29" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B29" s="9" t="n">
         <v>32.19</v>
       </c>
-      <c r="C29" s="17" t="n">
+      <c r="C29" s="9" t="n">
         <v>29.38</v>
       </c>
-      <c r="E29" s="18" t="n">
+      <c r="E29" s="16" t="n">
         <f aca="false">(B29-C29)/B29</f>
         <v>0.0872941907424666</v>
       </c>
@@ -7485,16 +7641,16 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="B30" s="17" t="n">
+      <c r="A30" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B30" s="9" t="n">
         <v>59.68</v>
       </c>
-      <c r="C30" s="17" t="n">
+      <c r="C30" s="9" t="n">
         <v>39.44</v>
       </c>
-      <c r="E30" s="18" t="n">
+      <c r="E30" s="16" t="n">
         <f aca="false">(B30-C30)/B30</f>
         <v>0.339142091152815</v>
       </c>
@@ -7504,16 +7660,16 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="B31" s="17" t="n">
+      <c r="A31" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B31" s="9" t="n">
         <v>27.85</v>
       </c>
-      <c r="C31" s="17" t="n">
+      <c r="C31" s="9" t="n">
         <v>19.62</v>
       </c>
-      <c r="E31" s="18" t="n">
+      <c r="E31" s="16" t="n">
         <f aca="false">(B31-C31)/B31</f>
         <v>0.295511669658887</v>
       </c>
@@ -7523,16 +7679,16 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="B32" s="17" t="n">
+      <c r="A32" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B32" s="9" t="n">
         <v>44.87</v>
       </c>
-      <c r="C32" s="17" t="n">
+      <c r="C32" s="9" t="n">
         <v>18.98</v>
       </c>
-      <c r="E32" s="18" t="n">
+      <c r="E32" s="16" t="n">
         <f aca="false">(B32-C32)/B32</f>
         <v>0.577000222866058</v>
       </c>
@@ -7542,16 +7698,16 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17" t="s">
-        <v>565</v>
-      </c>
-      <c r="B33" s="17" t="n">
+      <c r="A33" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="B33" s="9" t="n">
         <v>60.07</v>
       </c>
-      <c r="C33" s="17" t="n">
+      <c r="C33" s="9" t="n">
         <v>52.44</v>
       </c>
-      <c r="E33" s="18" t="n">
+      <c r="E33" s="16" t="n">
         <f aca="false">(B33-C33)/B33</f>
         <v>0.127018478441818</v>
       </c>
@@ -7561,16 +7717,16 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="B34" s="17" t="n">
+      <c r="A34" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B34" s="9" t="n">
         <v>10.52</v>
       </c>
-      <c r="C34" s="17" t="n">
+      <c r="C34" s="9" t="n">
         <v>7.12</v>
       </c>
-      <c r="E34" s="18" t="n">
+      <c r="E34" s="16" t="n">
         <f aca="false">(B34-C34)/B34</f>
         <v>0.32319391634981</v>
       </c>
@@ -7580,16 +7736,16 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="B35" s="17" t="n">
+      <c r="A35" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B35" s="9" t="n">
         <v>31.41</v>
       </c>
-      <c r="C35" s="17" t="n">
+      <c r="C35" s="9" t="n">
         <v>8.67</v>
       </c>
-      <c r="E35" s="18" t="n">
+      <c r="E35" s="16" t="n">
         <f aca="false">(B35-C35)/B35</f>
         <v>0.723973256924546</v>
       </c>
@@ -7599,16 +7755,16 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="B36" s="17" t="n">
+      <c r="A36" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B36" s="9" t="n">
         <v>7.27</v>
       </c>
-      <c r="C36" s="17" t="n">
+      <c r="C36" s="9" t="n">
         <v>5.29</v>
       </c>
-      <c r="E36" s="18" t="n">
+      <c r="E36" s="16" t="n">
         <f aca="false">(B36-C36)/B36</f>
         <v>0.272352132049519</v>
       </c>
@@ -7618,16 +7774,16 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="s">
-        <v>567</v>
-      </c>
-      <c r="B37" s="17" t="n">
+      <c r="A37" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B37" s="9" t="n">
         <v>13.16</v>
       </c>
-      <c r="C37" s="17" t="n">
+      <c r="C37" s="9" t="n">
         <v>4.21</v>
       </c>
-      <c r="E37" s="18" t="n">
+      <c r="E37" s="16" t="n">
         <f aca="false">(B37-C37)/B37</f>
         <v>0.680091185410334</v>
       </c>
@@ -7637,16 +7793,16 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17" t="s">
-        <v>532</v>
-      </c>
-      <c r="B38" s="17" t="n">
+      <c r="A38" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B38" s="9" t="n">
         <v>4.13</v>
       </c>
-      <c r="C38" s="17" t="n">
+      <c r="C38" s="9" t="n">
         <v>2.18</v>
       </c>
-      <c r="E38" s="18" t="n">
+      <c r="E38" s="16" t="n">
         <f aca="false">(B38-C38)/B38</f>
         <v>0.472154963680387</v>
       </c>
@@ -7656,16 +7812,16 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17" t="s">
-        <v>568</v>
-      </c>
-      <c r="B39" s="17" t="n">
+      <c r="A39" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B39" s="9" t="n">
         <v>48.71</v>
       </c>
-      <c r="C39" s="17" t="n">
+      <c r="C39" s="9" t="n">
         <v>47.55</v>
       </c>
-      <c r="E39" s="18" t="n">
+      <c r="E39" s="16" t="n">
         <f aca="false">(B39-C39)/B39</f>
         <v>0.0238144118250873</v>
       </c>
@@ -7675,16 +7831,16 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17" t="s">
-        <v>569</v>
-      </c>
-      <c r="B40" s="17" t="n">
+      <c r="A40" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B40" s="9" t="n">
         <v>9.02</v>
       </c>
-      <c r="C40" s="17" t="n">
+      <c r="C40" s="9" t="n">
         <v>4.17</v>
       </c>
-      <c r="E40" s="18" t="n">
+      <c r="E40" s="16" t="n">
         <f aca="false">(B40-C40)/B40</f>
         <v>0.537694013303769</v>
       </c>
@@ -7694,16 +7850,16 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="B41" s="17" t="n">
+      <c r="A41" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B41" s="9" t="n">
         <v>21.93</v>
       </c>
-      <c r="C41" s="17" t="n">
+      <c r="C41" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="E41" s="18" t="n">
+      <c r="E41" s="16" t="n">
         <f aca="false">(B41-C41)/B41</f>
         <v>0.589603283173735</v>
       </c>
@@ -7713,16 +7869,16 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17" t="s">
-        <v>571</v>
-      </c>
-      <c r="B42" s="17" t="n">
+      <c r="A42" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B42" s="9" t="n">
         <v>3054.01</v>
       </c>
-      <c r="C42" s="17" t="n">
+      <c r="C42" s="9" t="n">
         <v>2399.4</v>
       </c>
-      <c r="E42" s="18" t="n">
+      <c r="E42" s="16" t="n">
         <f aca="false">(B42-C42)/B42</f>
         <v>0.214344419304455</v>
       </c>
@@ -7732,16 +7888,16 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17" t="s">
-        <v>572</v>
-      </c>
-      <c r="B43" s="17" t="n">
+      <c r="A43" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B43" s="9" t="n">
         <v>5.4931</v>
       </c>
-      <c r="C43" s="17" t="n">
+      <c r="C43" s="9" t="n">
         <v>0.5812</v>
       </c>
-      <c r="E43" s="18" t="n">
+      <c r="E43" s="16" t="n">
         <f aca="false">(B43-C43)/B43</f>
         <v>0.894194534962043</v>
       </c>
@@ -7751,16 +7907,16 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="17" t="s">
-        <v>573</v>
-      </c>
-      <c r="B44" s="17" t="n">
+      <c r="A44" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B44" s="9" t="n">
         <v>4709.21</v>
       </c>
-      <c r="C44" s="17" t="n">
+      <c r="C44" s="9" t="n">
         <v>0.002609</v>
       </c>
-      <c r="E44" s="18" t="n">
+      <c r="E44" s="16" t="n">
         <f aca="false">(B44-C44)/B44</f>
         <v>0.999999445979262</v>
       </c>
@@ -7770,16 +7926,16 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="17" t="s">
-        <v>574</v>
-      </c>
-      <c r="B45" s="17" t="n">
+      <c r="A45" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B45" s="9" t="n">
         <v>15.3575</v>
       </c>
-      <c r="C45" s="17" t="n">
+      <c r="C45" s="9" t="n">
         <v>7.8637</v>
       </c>
-      <c r="E45" s="18" t="n">
+      <c r="E45" s="16" t="n">
         <f aca="false">(B45-C45)/B45</f>
         <v>0.48795702425525</v>
       </c>
@@ -7789,16 +7945,16 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="17" t="s">
-        <v>575</v>
-      </c>
-      <c r="B46" s="17" t="n">
+      <c r="A46" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B46" s="9" t="n">
         <v>0.179</v>
       </c>
-      <c r="C46" s="17" t="n">
+      <c r="C46" s="9" t="n">
         <v>0.4218</v>
       </c>
-      <c r="E46" s="18" t="n">
+      <c r="E46" s="16" t="n">
         <f aca="false">(B46-C46)/B46</f>
         <v>-1.35642458100559</v>
       </c>
@@ -7809,7 +7965,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="6" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E48" s="8" t="n">
         <f aca="false">AVERAGE(E2:E46)</f>
@@ -7834,7 +7990,7 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A205" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A259" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M278" activeCellId="0" sqref="M278"/>
     </sheetView>
   </sheetViews>
@@ -7849,37 +8005,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8311,37 +8467,37 @@
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8780,56 +8936,56 @@
         <v>0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="19" t="n">
+      <c r="B28" s="17" t="n">
         <v>0.0217</v>
       </c>
-      <c r="C28" s="19" t="n">
+      <c r="C28" s="17" t="n">
         <v>0.049</v>
       </c>
-      <c r="D28" s="19" t="n">
+      <c r="D28" s="17" t="n">
         <v>0.0022</v>
       </c>
-      <c r="E28" s="19" t="n">
+      <c r="E28" s="17" t="n">
         <v>0.0012</v>
       </c>
-      <c r="F28" s="19" t="n">
+      <c r="F28" s="17" t="n">
         <v>0.0067</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -8855,19 +9011,19 @@
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="19" t="n">
+      <c r="B29" s="17" t="n">
         <v>0.0167</v>
       </c>
-      <c r="C29" s="19" t="n">
+      <c r="C29" s="17" t="n">
         <v>0.0068</v>
       </c>
-      <c r="D29" s="19" t="n">
+      <c r="D29" s="17" t="n">
         <v>0.0047</v>
       </c>
-      <c r="E29" s="19" t="n">
+      <c r="E29" s="17" t="n">
         <v>0.0056</v>
       </c>
-      <c r="F29" s="19" t="n">
+      <c r="F29" s="17" t="n">
         <v>0.008</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -8893,19 +9049,19 @@
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="19" t="n">
+      <c r="B30" s="17" t="n">
         <v>0.0529</v>
       </c>
-      <c r="C30" s="19" t="n">
+      <c r="C30" s="17" t="n">
         <v>0.0161</v>
       </c>
-      <c r="D30" s="19" t="n">
+      <c r="D30" s="17" t="n">
         <v>0.0037</v>
       </c>
-      <c r="E30" s="19" t="n">
+      <c r="E30" s="17" t="n">
         <v>0.0083</v>
       </c>
-      <c r="F30" s="19" t="n">
+      <c r="F30" s="17" t="n">
         <v>0.0013</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -8931,19 +9087,19 @@
       <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="19" t="n">
+      <c r="B31" s="17" t="n">
         <v>0.0121</v>
       </c>
-      <c r="C31" s="19" t="n">
+      <c r="C31" s="17" t="n">
         <v>208.607</v>
       </c>
-      <c r="D31" s="19" t="n">
+      <c r="D31" s="17" t="n">
         <v>0.0043</v>
       </c>
-      <c r="E31" s="19" t="n">
+      <c r="E31" s="17" t="n">
         <v>0.0055</v>
       </c>
-      <c r="F31" s="19" t="n">
+      <c r="F31" s="17" t="n">
         <v>0.00069</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -8969,19 +9125,19 @@
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="19" t="n">
+      <c r="B32" s="17" t="n">
         <v>0.0043</v>
       </c>
-      <c r="C32" s="19" t="n">
+      <c r="C32" s="17" t="n">
         <v>0.0207</v>
       </c>
-      <c r="D32" s="19" t="n">
+      <c r="D32" s="17" t="n">
         <v>0.006</v>
       </c>
-      <c r="E32" s="19" t="n">
+      <c r="E32" s="17" t="n">
         <v>0.0013</v>
       </c>
-      <c r="F32" s="19" t="n">
+      <c r="F32" s="17" t="n">
         <v>0.0081</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -9007,19 +9163,19 @@
       <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="19" t="n">
+      <c r="B33" s="17" t="n">
         <v>0.0249</v>
       </c>
-      <c r="C33" s="19" t="n">
+      <c r="C33" s="17" t="n">
         <v>0.037</v>
       </c>
-      <c r="D33" s="19" t="n">
+      <c r="D33" s="17" t="n">
         <v>0.0133</v>
       </c>
-      <c r="E33" s="19" t="n">
+      <c r="E33" s="17" t="n">
         <v>0.0078</v>
       </c>
-      <c r="F33" s="19" t="n">
+      <c r="F33" s="17" t="n">
         <v>0.0122</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -9045,19 +9201,19 @@
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="19" t="n">
+      <c r="B34" s="17" t="n">
         <v>0.2028</v>
       </c>
-      <c r="C34" s="19" t="n">
+      <c r="C34" s="17" t="n">
         <v>0.0275</v>
       </c>
-      <c r="D34" s="19" t="n">
+      <c r="D34" s="17" t="n">
         <v>0.0027</v>
       </c>
-      <c r="E34" s="19" t="n">
+      <c r="E34" s="17" t="n">
         <v>0.00395</v>
       </c>
-      <c r="F34" s="19" t="n">
+      <c r="F34" s="17" t="n">
         <v>0.0038</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -9159,19 +9315,19 @@
       <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="19" t="n">
+      <c r="B37" s="17" t="n">
         <v>0.1431</v>
       </c>
-      <c r="C37" s="19" t="n">
+      <c r="C37" s="17" t="n">
         <v>0.042</v>
       </c>
-      <c r="D37" s="19" t="n">
+      <c r="D37" s="17" t="n">
         <v>0.0301</v>
       </c>
-      <c r="E37" s="19" t="n">
+      <c r="E37" s="17" t="n">
         <v>0.02</v>
       </c>
-      <c r="F37" s="19" t="n">
+      <c r="F37" s="17" t="n">
         <v>0.012</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -9195,23 +9351,23 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
-      <c r="B38" s="20" t="n">
+      <c r="B38" s="18" t="n">
         <f aca="false">AVERAGE(B28:B37)</f>
         <v>0.05097</v>
       </c>
-      <c r="C38" s="20" t="n">
+      <c r="C38" s="18" t="n">
         <f aca="false">AVERAGE(C28:C37)</f>
         <v>22.95041</v>
       </c>
-      <c r="D38" s="20" t="n">
+      <c r="D38" s="18" t="n">
         <f aca="false">AVERAGE(D28:D37)</f>
         <v>0.00741</v>
       </c>
-      <c r="E38" s="20" t="n">
+      <c r="E38" s="18" t="n">
         <f aca="false">AVERAGE(E28:E37)</f>
         <v>0.006505</v>
       </c>
-      <c r="F38" s="20" t="n">
+      <c r="F38" s="18" t="n">
         <f aca="false">AVERAGE(F28:F37)</f>
         <v>0.006419</v>
       </c>
@@ -9242,37 +9398,37 @@
         <v>0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>43</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9701,23 +9857,23 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="4" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -10041,37 +10197,37 @@
         <v>0</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>43</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10503,37 +10659,37 @@
         <v>0</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10965,37 +11121,37 @@
         <v>0</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11427,37 +11583,37 @@
         <v>0</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J99" s="7" t="s">
         <v>43</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M99" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11889,37 +12045,37 @@
         <v>0</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12351,37 +12507,37 @@
         <v>0</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>43</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12813,37 +12969,37 @@
         <v>0</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J135" s="3" t="s">
         <v>43</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13275,37 +13431,37 @@
         <v>0</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J147" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13603,13 +13759,13 @@
         <v>0.0679</v>
       </c>
       <c r="K155" s="5" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="L155" s="5" t="n">
         <v>0.0697</v>
       </c>
       <c r="M155" s="5" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13638,14 +13794,14 @@
         <v>0.1079</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="K156" s="5"/>
       <c r="L156" s="5" t="n">
         <v>0.0675</v>
       </c>
       <c r="M156" s="5" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13674,7 +13830,7 @@
         <v>0.1079</v>
       </c>
       <c r="J157" s="5" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="K157" s="5"/>
       <c r="L157" s="5" t="n">
@@ -13733,37 +13889,37 @@
         <v>0</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H159" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J159" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K159" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14195,42 +14351,42 @@
         <v>0</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H171" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J171" s="8" t="s">
         <v>43</v>
       </c>
       <c r="K171" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L171" s="8" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M171" s="8" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B172" s="5" t="n">
         <v>0.1111</v>
@@ -14248,7 +14404,7 @@
         <v>0.1111</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I172" s="5" t="n">
         <v>0.371</v>
@@ -14268,7 +14424,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B173" s="5" t="n">
         <v>0.1111</v>
@@ -14286,7 +14442,7 @@
         <v>0.0556</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I173" s="5" t="n">
         <v>0.4323</v>
@@ -14306,7 +14462,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B174" s="5" t="n">
         <v>0.037</v>
@@ -14324,7 +14480,7 @@
         <v>0.0185</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I174" s="5" t="n">
         <v>0.4323</v>
@@ -14344,7 +14500,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B175" s="5" t="n">
         <v>0.0185</v>
@@ -14362,7 +14518,7 @@
         <v>0.0185</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I175" s="5" t="n">
         <v>0.4194</v>
@@ -14382,7 +14538,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B176" s="5" t="n">
         <v>0.0741</v>
@@ -14400,7 +14556,7 @@
         <v>0.0617</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I176" s="5" t="n">
         <v>0.3226</v>
@@ -14420,7 +14576,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B177" s="5" t="n">
         <v>0.0741</v>
@@ -14438,7 +14594,7 @@
         <v>0.0741</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I177" s="5" t="n">
         <v>0.4032</v>
@@ -14458,7 +14614,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B178" s="5" t="n">
         <v>0.0741</v>
@@ -14476,7 +14632,7 @@
         <v>0.0642</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I178" s="5" t="n">
         <v>0.3516</v>
@@ -14496,7 +14652,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B179" s="5" t="n">
         <v>0.0741</v>
@@ -14514,7 +14670,7 @@
         <v>0.0525</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I179" s="5" t="n">
         <v>0.371</v>
@@ -14534,7 +14690,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B180" s="5" t="n">
         <v>0.0556</v>
@@ -14552,7 +14708,7 @@
         <v>0.0185</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I180" s="5" t="n">
         <v>0.2903</v>
@@ -14572,7 +14728,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B181" s="5" t="n">
         <v>0.0741</v>
@@ -14590,7 +14746,7 @@
         <v>0.0556</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I181" s="5" t="n">
         <v>0.4355</v>
@@ -14657,38 +14813,38 @@
         <v>0</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F183" s="4"/>
       <c r="H183" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J183" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K183" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B184" s="5" t="n">
         <v>0.2265</v>
@@ -14702,7 +14858,7 @@
       </c>
       <c r="F184" s="5"/>
       <c r="H184" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I184" s="5" t="n">
         <v>0.3576</v>
@@ -14722,7 +14878,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B185" s="5" t="n">
         <v>0.2405</v>
@@ -14736,7 +14892,7 @@
       </c>
       <c r="F185" s="5"/>
       <c r="H185" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I185" s="5" t="n">
         <v>0.3681</v>
@@ -14756,7 +14912,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B186" s="5" t="n">
         <v>0.2376</v>
@@ -14770,7 +14926,7 @@
       </c>
       <c r="F186" s="5"/>
       <c r="H186" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I186" s="5" t="n">
         <v>0.4167</v>
@@ -14790,7 +14946,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B187" s="5" t="n">
         <v>0.2227</v>
@@ -14800,11 +14956,11 @@
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="F187" s="5"/>
       <c r="H187" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I187" s="5" t="n">
         <v>0.358</v>
@@ -14824,7 +14980,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B188" s="5"/>
       <c r="C188" s="5" t="n">
@@ -14834,7 +14990,7 @@
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="H188" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I188" s="5" t="n">
         <v>0.1993</v>
@@ -14854,7 +15010,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B189" s="5"/>
       <c r="C189" s="5" t="n">
@@ -14864,7 +15020,7 @@
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="H189" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I189" s="5" t="n">
         <v>0.3087</v>
@@ -14884,7 +15040,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B190" s="5"/>
       <c r="C190" s="5" t="n">
@@ -14894,7 +15050,7 @@
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="H190" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I190" s="5" t="n">
         <v>0.3406</v>
@@ -14914,7 +15070,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B191" s="5"/>
       <c r="C191" s="5" t="n">
@@ -14924,7 +15080,7 @@
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="H191" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I191" s="5" t="n">
         <v>0.3949</v>
@@ -14944,7 +15100,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B192" s="5"/>
       <c r="C192" s="5" t="n">
@@ -14954,7 +15110,7 @@
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="H192" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I192" s="5" t="n">
         <v>0.2464</v>
@@ -14974,17 +15130,17 @@
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="5" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="H193" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I193" s="5" t="n">
         <v>0.2304</v>
@@ -15045,42 +15201,42 @@
         <v>0</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H195" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J195" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K195" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M195" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B196" s="5" t="n">
         <v>0.5984</v>
@@ -15098,7 +15254,7 @@
         <v>0.2595</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I196" s="5" t="n">
         <v>0.2033</v>
@@ -15118,7 +15274,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B197" s="5" t="n">
         <v>0.6098</v>
@@ -15136,7 +15292,7 @@
         <v>0.3739</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I197" s="5" t="n">
         <v>0.3583</v>
@@ -15156,7 +15312,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B198" s="5" t="n">
         <v>0.5874</v>
@@ -15174,7 +15330,7 @@
         <v>0.3911</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I198" s="5" t="n">
         <v>0.4467</v>
@@ -15194,7 +15350,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B199" s="5" t="n">
         <v>0.5472</v>
@@ -15212,7 +15368,7 @@
         <v>0.2903</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I199" s="5" t="n">
         <v>0.2317</v>
@@ -15232,7 +15388,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B200" s="5" t="n">
         <v>0.5957</v>
@@ -15250,7 +15406,7 @@
         <v>0.5642</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I200" s="5" t="n">
         <v>0.2133</v>
@@ -15270,7 +15426,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B201" s="5" t="n">
         <v>0.5975</v>
@@ -15288,7 +15444,7 @@
         <v>0.2349</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I201" s="5" t="n">
         <v>0.275</v>
@@ -15308,7 +15464,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B202" s="5" t="n">
         <v>0.5706</v>
@@ -15326,7 +15482,7 @@
         <v>0.3687</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I202" s="5" t="n">
         <v>0.3733</v>
@@ -15346,7 +15502,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B203" s="5" t="n">
         <v>0.6377</v>
@@ -15364,7 +15520,7 @@
         <v>0.6365</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I203" s="5" t="n">
         <v>0.1267</v>
@@ -15384,7 +15540,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B204" s="5" t="n">
         <v>0.6274</v>
@@ -15402,13 +15558,13 @@
         <v>0.3573</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I204" s="5" t="n">
         <v>0.2433</v>
       </c>
       <c r="J204" s="5" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="K204" s="5" t="n">
         <v>0.25</v>
@@ -15422,7 +15578,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B205" s="5" t="n">
         <v>0.5962</v>
@@ -15431,7 +15587,7 @@
         <v>0.6329</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="E205" s="5" t="n">
         <v>0.6913</v>
@@ -15440,13 +15596,13 @@
         <v>0.5844</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I205" s="5" t="n">
         <v>0.3133</v>
       </c>
       <c r="J205" s="5" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="K205" s="5" t="n">
         <v>0.2</v>
@@ -15507,42 +15663,42 @@
         <v>0</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H207" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J207" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K207" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L207" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B208" s="5" t="n">
         <v>0.5065</v>
@@ -15560,7 +15716,7 @@
         <v>0.5485</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I208" s="5" t="n">
         <v>0.6467</v>
@@ -15580,7 +15736,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B209" s="5" t="n">
         <v>0.4638</v>
@@ -15598,7 +15754,7 @@
         <v>0.425</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I209" s="5" t="n">
         <v>0.6022</v>
@@ -15618,7 +15774,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B210" s="5" t="n">
         <v>0.39</v>
@@ -15636,7 +15792,7 @@
         <v>0.4418</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I210" s="5" t="n">
         <v>0.6644</v>
@@ -15656,7 +15812,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B211" s="5" t="n">
         <v>0.4372</v>
@@ -15674,7 +15830,7 @@
         <v>0.4457</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I211" s="5" t="n">
         <v>0.6267</v>
@@ -15694,7 +15850,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B212" s="5" t="n">
         <v>0.4897</v>
@@ -15712,7 +15868,7 @@
         <v>0.4397</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I212" s="5" t="n">
         <v>0.68</v>
@@ -15732,7 +15888,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B213" s="5" t="n">
         <v>0.4383</v>
@@ -15750,7 +15906,7 @@
         <v>0.4367</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I213" s="5" t="n">
         <v>0.7</v>
@@ -15770,7 +15926,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B214" s="5" t="n">
         <v>0.4018</v>
@@ -15788,7 +15944,7 @@
         <v>0.4382</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I214" s="5" t="n">
         <v>0.7333</v>
@@ -15808,7 +15964,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B215" s="5" t="n">
         <v>0.4088</v>
@@ -15826,7 +15982,7 @@
         <v>0.4223</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I215" s="5" t="n">
         <v>0.3333</v>
@@ -15846,7 +16002,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B216" s="5" t="n">
         <v>0.465</v>
@@ -15864,7 +16020,7 @@
         <v>0.4518</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I216" s="5" t="n">
         <v>0.7133</v>
@@ -15884,7 +16040,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B217" s="5" t="n">
         <v>0.4863</v>
@@ -15902,7 +16058,7 @@
         <v>0.3948</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I217" s="5" t="n">
         <v>0.3067</v>
@@ -15969,42 +16125,42 @@
         <v>0</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H219" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I219" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J219" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K219" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L219" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B220" s="5" t="n">
         <v>0.4059</v>
@@ -16022,7 +16178,7 @@
         <v>0.1196</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I220" s="5" t="n">
         <v>0.0762</v>
@@ -16042,7 +16198,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B221" s="5" t="n">
         <v>0.2922</v>
@@ -16060,7 +16216,7 @@
         <v>0.0529</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I221" s="5" t="n">
         <v>0.0375</v>
@@ -16080,7 +16236,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B222" s="5" t="n">
         <v>0.4627</v>
@@ -16098,7 +16254,7 @@
         <v>0.149</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I222" s="5" t="n">
         <v>0.0899</v>
@@ -16118,7 +16274,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B223" s="5" t="n">
         <v>0.3843</v>
@@ -16136,7 +16292,7 @@
         <v>0.0412</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I223" s="5" t="n">
         <v>0.0315</v>
@@ -16156,7 +16312,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B224" s="5" t="n">
         <v>0.3784</v>
@@ -16174,7 +16330,7 @@
         <v>0</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I224" s="5" t="n">
         <v>0.0518</v>
@@ -16194,7 +16350,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B225" s="5" t="n">
         <v>0.2941</v>
@@ -16212,7 +16368,7 @@
         <v>0.0647</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I225" s="5" t="n">
         <v>0.0714</v>
@@ -16232,7 +16388,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B226" s="5" t="n">
         <v>0.1627</v>
@@ -16250,7 +16406,7 @@
         <v>0.0863</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I226" s="5" t="n">
         <v>0.1054</v>
@@ -16270,7 +16426,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B227" s="5" t="n">
         <v>0.1765</v>
@@ -16288,7 +16444,7 @@
         <v>0.0216</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I227" s="5" t="n">
         <v>0.1012</v>
@@ -16308,7 +16464,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B228" s="5" t="n">
         <v>0.2137</v>
@@ -16326,7 +16482,7 @@
         <v>0.0863</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I228" s="5" t="n">
         <v>0.1083</v>
@@ -16346,7 +16502,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B229" s="5" t="n">
         <v>0.3706</v>
@@ -16364,7 +16520,7 @@
         <v>0</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I229" s="5" t="n">
         <v>0.0536</v>
@@ -16431,42 +16587,42 @@
         <v>0</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H231" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I231" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J231" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K231" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L231" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B232" s="5" t="n">
         <v>0.16</v>
@@ -16484,7 +16640,7 @@
         <v>0.0811</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I232" s="5" t="n">
         <v>0.0527</v>
@@ -16504,7 +16660,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B233" s="5" t="n">
         <v>0.2311</v>
@@ -16522,7 +16678,7 @@
         <v>0.07</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I233" s="5" t="n">
         <v>0.0447</v>
@@ -16542,7 +16698,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B234" s="5" t="n">
         <v>0.1433</v>
@@ -16560,7 +16716,7 @@
         <v>0.0989</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I234" s="5" t="n">
         <v>0.052</v>
@@ -16580,7 +16736,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B235" s="5" t="n">
         <v>0.0711</v>
@@ -16598,7 +16754,7 @@
         <v>0.0256</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I235" s="5" t="n">
         <v>0.04</v>
@@ -16618,7 +16774,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B236" s="5" t="n">
         <v>0.13</v>
@@ -16636,7 +16792,7 @@
         <v>0.0744</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I236" s="5" t="n">
         <v>0.02</v>
@@ -16656,7 +16812,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B237" s="5" t="n">
         <v>0.0656</v>
@@ -16674,7 +16830,7 @@
         <v>0.0011</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I237" s="5" t="n">
         <v>0.0547</v>
@@ -16694,7 +16850,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B238" s="5" t="n">
         <v>0.2122</v>
@@ -16712,7 +16868,7 @@
         <v>0.0256</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I238" s="5" t="n">
         <v>0</v>
@@ -16732,7 +16888,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B239" s="5" t="n">
         <v>0.1322</v>
@@ -16750,7 +16906,7 @@
         <v>0.0878</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I239" s="5" t="n">
         <v>0.0587</v>
@@ -16770,7 +16926,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B240" s="5" t="n">
         <v>0.0533</v>
@@ -16788,7 +16944,7 @@
         <v>0.0578</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I240" s="5" t="n">
         <v>0.04</v>
@@ -16808,7 +16964,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B241" s="5" t="n">
         <v>0.1167</v>
@@ -16826,7 +16982,7 @@
         <v>0.0789</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I241" s="5" t="n">
         <v>0.04</v>
@@ -16893,42 +17049,42 @@
         <v>0</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C243" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E243" s="8" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H243" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J243" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K243" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L243" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M243" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B244" s="5" t="n">
         <v>0.4887</v>
@@ -16946,7 +17102,7 @@
         <v>0.6253</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I244" s="5" t="n">
         <v>0.0973</v>
@@ -16966,7 +17122,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B245" s="5" t="n">
         <v>0.5267</v>
@@ -16984,7 +17140,7 @@
         <v>0.5047</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I245" s="5" t="n">
         <v>0.0533</v>
@@ -17004,7 +17160,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B246" s="5" t="n">
         <v>0.5467</v>
@@ -17022,7 +17178,7 @@
         <v>0.6093</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I246" s="5" t="n">
         <v>0.114</v>
@@ -17042,7 +17198,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B247" s="5" t="n">
         <v>0.4927</v>
@@ -17060,7 +17216,7 @@
         <v>0.5373</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I247" s="5" t="n">
         <v>0.0533</v>
@@ -17080,7 +17236,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B248" s="5" t="n">
         <v>0.28</v>
@@ -17098,7 +17254,7 @@
         <v>0.538</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I248" s="5" t="n">
         <v>0.094</v>
@@ -17118,7 +17274,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B249" s="5" t="n">
         <v>0.558</v>
@@ -17136,7 +17292,7 @@
         <v>0.482</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I249" s="5" t="n">
         <v>0.148</v>
@@ -17156,7 +17312,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B250" s="5" t="n">
         <v>0.4667</v>
@@ -17174,7 +17330,7 @@
         <v>0.576</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I250" s="5" t="n">
         <v>0.0347</v>
@@ -17194,7 +17350,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B251" s="5" t="n">
         <v>0.484</v>
@@ -17212,7 +17368,7 @@
         <v>0.6593</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I251" s="5" t="n">
         <v>0.128</v>
@@ -17232,7 +17388,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B252" s="5" t="n">
         <v>0.526</v>
@@ -17250,7 +17406,7 @@
         <v>0.5913</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I252" s="5" t="n">
         <v>0.066</v>
@@ -17270,7 +17426,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B253" s="5" t="n">
         <v>0.5013</v>
@@ -17288,7 +17444,7 @@
         <v>0.6807</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I253" s="5" t="n">
         <v>0.1133</v>
@@ -17355,42 +17511,42 @@
         <v>0</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H255" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I255" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J255" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K255" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L255" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M255" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B256" s="5" t="n">
         <v>0.16</v>
@@ -17408,7 +17564,7 @@
         <v>0</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I256" s="1" t="n">
         <v>2559.48</v>
@@ -17428,7 +17584,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B257" s="5" t="n">
         <v>0.5833</v>
@@ -17446,7 +17602,7 @@
         <v>0.3533</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I257" s="1" t="n">
         <v>3422.615</v>
@@ -17466,7 +17622,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B258" s="5" t="n">
         <v>0.0967</v>
@@ -17484,7 +17640,7 @@
         <v>0.1</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I258" s="1" t="n">
         <v>3254.55</v>
@@ -17493,7 +17649,7 @@
         <v>2327.56</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="L258" s="1" t="n">
         <v>2127.218</v>
@@ -17504,7 +17660,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B259" s="5" t="n">
         <v>0.1267</v>
@@ -17522,7 +17678,7 @@
         <v>0</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I259" s="1" t="n">
         <v>2719.51</v>
@@ -17531,7 +17687,7 @@
         <v>2124.055</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="L259" s="1" t="n">
         <v>2053.48</v>
@@ -17542,7 +17698,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B260" s="5" t="n">
         <v>0.1067</v>
@@ -17560,10 +17716,10 @@
         <v>0</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="K260" s="1" t="n">
         <v>2315.79</v>
@@ -17577,7 +17733,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B261" s="5" t="n">
         <v>0.2533</v>
@@ -17595,10 +17751,10 @@
         <v>0.23</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="K261" s="1" t="n">
         <v>2437.59</v>
@@ -17612,7 +17768,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B262" s="5" t="n">
         <v>0.3667</v>
@@ -17630,13 +17786,13 @@
         <v>0.0367</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J262" s="1" t="n">
         <v>1541.508</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="L262" s="1" t="n">
         <v>1918.55</v>
@@ -17647,7 +17803,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B263" s="5" t="n">
         <v>0.19</v>
@@ -17665,10 +17821,10 @@
         <v>0</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="K263" s="1" t="n">
         <v>2344.17</v>
@@ -17682,7 +17838,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B264" s="5" t="n">
         <v>0.28</v>
@@ -17700,10 +17856,10 @@
         <v>0.1033</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="K264" s="1" t="n">
         <v>1995.07</v>
@@ -17717,7 +17873,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B265" s="5" t="n">
         <v>0.03</v>
@@ -17735,7 +17891,7 @@
         <v>0.0267</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J265" s="1" t="n">
         <v>2190.68</v>
@@ -17799,42 +17955,42 @@
         <v>0</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H267" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I267" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="J267" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K267" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L267" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M267" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>1.322</v>
@@ -17852,7 +18008,7 @@
         <v>0.5599</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J268" s="1" t="n">
         <v>2.631</v>
@@ -17869,7 +18025,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>3.0689</v>
@@ -17887,7 +18043,7 @@
         <v>0.484</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J269" s="1" t="n">
         <v>6.046</v>
@@ -17904,7 +18060,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>27.62</v>
@@ -17922,7 +18078,7 @@
         <v>0.513</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J270" s="1" t="n">
         <v>0.0311</v>
@@ -17939,7 +18095,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>3.731</v>
@@ -17957,7 +18113,7 @@
         <v>0.394</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J271" s="1" t="n">
         <v>0.036</v>
@@ -17974,7 +18130,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>3.4</v>
@@ -17992,7 +18148,7 @@
         <v>0.477</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J272" s="1" t="n">
         <v>1.529</v>
@@ -18009,7 +18165,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>0.829</v>
@@ -18027,7 +18183,7 @@
         <v>0.44</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J273" s="1" t="n">
         <v>0.0339</v>
@@ -18044,7 +18200,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>1.012</v>
@@ -18062,7 +18218,7 @@
         <v>0.491</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J274" s="1" t="n">
         <v>7.669</v>
@@ -18079,7 +18235,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>3.202</v>
@@ -18091,13 +18247,13 @@
         <v>0.515</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F275" s="1" t="n">
         <v>0.628</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J275" s="1" t="n">
         <v>0.0219</v>
@@ -18114,7 +18270,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>1.872</v>
@@ -18132,7 +18288,7 @@
         <v>0.517</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J276" s="1" t="n">
         <v>1.38</v>
@@ -18149,7 +18305,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C277" s="1" t="n">
         <v>0.234</v>
@@ -18164,7 +18320,7 @@
         <v>0.531</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J277" s="1" t="n">
         <v>0.0264</v>
@@ -18228,42 +18384,42 @@
         <v>0</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H279" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I279" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J279" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K279" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L279" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M279" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>14.33</v>
@@ -18281,7 +18437,7 @@
         <v>8.582</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I280" s="1" t="n">
         <v>17344.77</v>
@@ -18301,7 +18457,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>16.352</v>
@@ -18319,7 +18475,7 @@
         <v>7.369</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I281" s="1" t="n">
         <v>1177720.93</v>
@@ -18339,7 +18495,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>16.48</v>
@@ -18357,7 +18513,7 @@
         <v>9.163</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="I282" s="1" t="n">
         <v>587762.97</v>
@@ -18377,7 +18533,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>14.8</v>
@@ -18395,7 +18551,7 @@
         <v>7.596</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I283" s="1" t="n">
         <v>14240.93</v>
@@ -18415,7 +18571,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>12.5</v>
@@ -18433,7 +18589,7 @@
         <v>7.235</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="I284" s="1" t="n">
         <v>85683.79</v>
@@ -18453,7 +18609,7 @@
     </row>
     <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>15.98</v>
@@ -18471,7 +18627,7 @@
         <v>7.979</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I285" s="1" t="n">
         <v>13463.03</v>
@@ -18491,7 +18647,7 @@
     </row>
     <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>15.81</v>
@@ -18509,7 +18665,7 @@
         <v>9.331</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I286" s="1" t="n">
         <v>50784.14</v>
@@ -18529,7 +18685,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>19.64</v>
@@ -18547,7 +18703,7 @@
         <v>7.527</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="I287" s="1" t="n">
         <v>31449.6</v>
@@ -18567,7 +18723,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>14.34</v>
@@ -18585,7 +18741,7 @@
         <v>6.475</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="I288" s="1" t="n">
         <v>15207.4</v>
@@ -18605,7 +18761,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C289" s="1" t="n">
         <v>7.3</v>
@@ -18620,7 +18776,7 @@
         <v>7.138</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I289" s="1" t="n">
         <v>45700.7</v>
@@ -18687,42 +18843,42 @@
         <v>0</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H292" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I292" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J292" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K292" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L292" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M292" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>1.01</v>
@@ -18740,7 +18896,7 @@
         <v>0.669</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I293" s="1" t="n">
         <v>522.963</v>
@@ -18760,7 +18916,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>0.378</v>
@@ -18778,7 +18934,7 @@
         <v>0.121</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I294" s="1" t="n">
         <v>40.23</v>
@@ -18798,7 +18954,7 @@
     </row>
     <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>3.505</v>
@@ -18816,7 +18972,7 @@
         <v>1.451</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I295" s="1" t="n">
         <v>42.34</v>
@@ -18836,7 +18992,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>1.684</v>
@@ -18854,7 +19010,7 @@
         <v>2.06</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I296" s="1" t="n">
         <v>57.64</v>
@@ -18874,7 +19030,7 @@
     </row>
     <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>1.261</v>
@@ -18892,7 +19048,7 @@
         <v>1.367</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I297" s="1" t="n">
         <v>24.35</v>
@@ -18912,7 +19068,7 @@
     </row>
     <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>1.002</v>
@@ -18930,7 +19086,7 @@
         <v>0.989</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I298" s="1" t="n">
         <v>75.16</v>
@@ -18950,7 +19106,7 @@
     </row>
     <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>1.864</v>
@@ -18968,7 +19124,7 @@
         <v>1.401</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I299" s="1" t="n">
         <v>64.27</v>
@@ -18988,7 +19144,7 @@
     </row>
     <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>4.582</v>
@@ -19006,7 +19162,7 @@
         <v>3.086</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I300" s="1" t="n">
         <v>49.29</v>
@@ -19026,7 +19182,7 @@
     </row>
     <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>2.062</v>
@@ -19044,7 +19200,7 @@
         <v>0.233</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I301" s="1" t="n">
         <v>77.81</v>
@@ -19064,7 +19220,7 @@
     </row>
     <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>2.275</v>
@@ -19082,7 +19238,7 @@
         <v>0.428</v>
       </c>
       <c r="H302" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I302" s="1" t="n">
         <v>80.17</v>
@@ -19149,42 +19305,42 @@
         <v>0</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H305" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I305" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J305" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K305" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L305" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M305" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>0.443</v>
@@ -19202,7 +19358,7 @@
         <v>0.657</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I306" s="1" t="n">
         <v>866.528</v>
@@ -19222,7 +19378,7 @@
     </row>
     <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>0.0377</v>
@@ -19240,7 +19396,7 @@
         <v>0.0712</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I307" s="1" t="n">
         <v>995.924</v>
@@ -19260,7 +19416,7 @@
     </row>
     <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>0.0441</v>
@@ -19275,7 +19431,7 @@
         <v>0.0144</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="I308" s="1" t="n">
         <v>1030.891</v>
@@ -19292,7 +19448,7 @@
     </row>
     <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>0.0307</v>
@@ -19307,7 +19463,7 @@
         <v>0.0068</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I309" s="1" t="n">
         <v>1082.829</v>
@@ -19324,7 +19480,7 @@
     </row>
     <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>0.0367</v>
@@ -19339,7 +19495,7 @@
         <v>0.0311</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="I310" s="1" t="n">
         <v>1013.247</v>
@@ -19356,7 +19512,7 @@
     </row>
     <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>0.1071</v>
@@ -19371,7 +19527,7 @@
         <v>0.117</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="I311" s="1" t="n">
         <v>1288.53</v>
@@ -19388,7 +19544,7 @@
     </row>
     <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>0.0602</v>
@@ -19403,7 +19559,7 @@
         <v>0.112</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="I312" s="1" t="n">
         <v>890.262</v>
@@ -19420,7 +19576,7 @@
     </row>
     <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>0.0159</v>
@@ -19435,7 +19591,7 @@
         <v>0.0112</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="I313" s="1" t="n">
         <v>1352.2</v>
@@ -19452,7 +19608,7 @@
     </row>
     <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>0.0364</v>
@@ -19467,7 +19623,7 @@
         <v>0.041</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I314" s="1" t="n">
         <v>1144.98</v>
@@ -19487,7 +19643,7 @@
     </row>
     <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>0.0405</v>
@@ -19502,7 +19658,7 @@
         <v>0.0747</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I315" s="1" t="n">
         <v>1019.48</v>
@@ -19569,42 +19725,42 @@
         <v>0</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F318" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H318" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I318" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J318" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K318" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L318" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M318" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>39066.65</v>
@@ -19616,7 +19772,7 @@
         <v>45098.656</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I319" s="1" t="n">
         <v>4.467</v>
@@ -19636,7 +19792,7 @@
     </row>
     <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>37481.94</v>
@@ -19645,10 +19801,10 @@
         <v>37999.52</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I320" s="1" t="n">
         <v>5.415</v>
@@ -19668,7 +19824,7 @@
     </row>
     <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>39273.36</v>
@@ -19677,7 +19833,7 @@
         <v>35637.804</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I321" s="1" t="n">
         <v>6.304</v>
@@ -19697,7 +19853,7 @@
     </row>
     <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>42849.09</v>
@@ -19706,7 +19862,7 @@
         <v>40633.18</v>
       </c>
       <c r="H322" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I322" s="1" t="n">
         <v>6.317</v>
@@ -19723,7 +19879,7 @@
     </row>
     <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>40087.37</v>
@@ -19732,7 +19888,7 @@
         <v>38574.79</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I323" s="1" t="n">
         <v>9.204</v>
@@ -19749,13 +19905,13 @@
     </row>
     <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>40604.87</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I324" s="1" t="n">
         <v>9.909</v>
@@ -19772,13 +19928,13 @@
     </row>
     <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>45484.39</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I325" s="1" t="n">
         <v>4.276</v>
@@ -19795,13 +19951,13 @@
     </row>
     <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>40091.25</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I326" s="1" t="n">
         <v>6.263</v>
@@ -19821,13 +19977,13 @@
     </row>
     <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>42252.29</v>
       </c>
       <c r="H327" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I327" s="1" t="n">
         <v>3.883</v>
@@ -19847,13 +20003,13 @@
     </row>
     <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>41111.87</v>
       </c>
       <c r="H328" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I328" s="1" t="n">
         <v>5.797</v>
@@ -19920,42 +20076,42 @@
         <v>0</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F331" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H331" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I331" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J331" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K331" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L331" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M331" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>866.955</v>
@@ -19973,7 +20129,7 @@
         <v>860.926</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I332" s="1" t="n">
         <v>209.992</v>
@@ -19993,7 +20149,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>786.349</v>
@@ -20011,7 +20167,7 @@
         <v>767.732</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I333" s="1" t="n">
         <v>123.791</v>
@@ -20031,7 +20187,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>846.895</v>
@@ -20046,7 +20202,7 @@
         <v>909.333</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I334" s="1" t="n">
         <v>93.28</v>
@@ -20063,7 +20219,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>1074.916</v>
@@ -20078,7 +20234,7 @@
         <v>1121.884</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I335" s="1" t="n">
         <v>165.181</v>
@@ -20095,7 +20251,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>747.913</v>
@@ -20110,7 +20266,7 @@
         <v>872.034</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I336" s="1" t="n">
         <v>143.873</v>
@@ -20127,7 +20283,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>895.811</v>
@@ -20142,7 +20298,7 @@
         <v>903.958</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I337" s="1" t="n">
         <v>194.048</v>
@@ -20159,7 +20315,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>834.854</v>
@@ -20174,7 +20330,7 @@
         <v>783.125</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I338" s="1" t="n">
         <v>112.645</v>
@@ -20191,7 +20347,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>855.636</v>
@@ -20206,7 +20362,7 @@
         <v>815.123</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I339" s="1" t="n">
         <v>135.299</v>
@@ -20223,7 +20379,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>992.357</v>
@@ -20241,7 +20397,7 @@
         <v>921.952</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I340" s="1" t="n">
         <v>161.14</v>
@@ -20261,7 +20417,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>748.824</v>
@@ -20279,7 +20435,7 @@
         <v>704.94</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I341" s="1" t="n">
         <v>173.358</v>
@@ -20346,42 +20502,42 @@
         <v>0</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F344" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H344" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I344" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J344" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K344" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L344" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M344" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>1391.789</v>
@@ -20399,7 +20555,7 @@
         <v>332.161</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I345" s="1" t="n">
         <v>202.381</v>
@@ -20419,7 +20575,7 @@
     </row>
     <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>1611.632</v>
@@ -20437,7 +20593,7 @@
         <v>351.491</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I346" s="1" t="n">
         <v>269.54</v>
@@ -20452,12 +20608,12 @@
         <v>71.316</v>
       </c>
       <c r="M346" s="1" t="s">
-        <v>582</v>
+        <v>284</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>1300.06</v>
@@ -20472,7 +20628,7 @@
         <v>382.328</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I347" s="1" t="n">
         <v>211.11</v>
@@ -20489,7 +20645,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>1558.72</v>
@@ -20504,7 +20660,7 @@
         <v>482.452</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I348" s="1" t="n">
         <v>133.87</v>
@@ -20521,7 +20677,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>1612.099</v>
@@ -20536,7 +20692,7 @@
         <v>370.626</v>
       </c>
       <c r="H349" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I349" s="1" t="n">
         <v>241.64</v>
@@ -20553,7 +20709,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>5911.428</v>
@@ -20568,7 +20724,7 @@
         <v>450.96</v>
       </c>
       <c r="H350" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I350" s="1" t="n">
         <v>319.07</v>
@@ -20585,7 +20741,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>1299.84</v>
@@ -20600,7 +20756,7 @@
         <v>385.371</v>
       </c>
       <c r="H351" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I351" s="1" t="n">
         <v>208.53</v>
@@ -20617,7 +20773,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>1994.55</v>
@@ -20632,7 +20788,7 @@
         <v>410.976</v>
       </c>
       <c r="H352" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I352" s="1" t="n">
         <v>116.21</v>
@@ -20649,7 +20805,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>2093.867</v>
@@ -20667,7 +20823,7 @@
         <v>378.83</v>
       </c>
       <c r="H353" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I353" s="1" t="n">
         <v>128.75</v>
@@ -20687,7 +20843,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>3558.029</v>
@@ -20705,7 +20861,7 @@
         <v>373.873</v>
       </c>
       <c r="H354" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I354" s="1" t="n">
         <v>274.35</v>

--- a/doc/rbf_results.xlsx
+++ b/doc/rbf_results.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="RESULTS" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="mlp_results" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="globalOptimus_averages" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="COMPARISONS" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="ORIGINAL_RESULTS" sheetId="4" state="visible" r:id="rId5"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="666">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">Australian_2</t>
   </si>
   <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">Appendicitis_3</t>
   </si>
   <si>
@@ -875,9 +878,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pima_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">Popfailures_1</t>
@@ -2247,8 +2247,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B223" activeCellId="0" sqref="B223"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F101" activeCellId="0" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2284,14 +2284,14 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>0.1967</v>
+        <v>0.2267</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0.4271</v>
+        <v>0.2816</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -2300,150 +2300,134 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>0.2</v>
+        <v>0.3967</v>
       </c>
       <c r="C3" s="5"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="n">
-        <v>0.2802</v>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>0.1</v>
+        <v>0.3233</v>
       </c>
       <c r="C4" s="5"/>
       <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>0.3845</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>0.1</v>
+        <v>0.2133</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>0.3594</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>0.0967</v>
+        <v>0.2367</v>
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>0.2686</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>0.2</v>
+        <v>0.3433</v>
       </c>
       <c r="C7" s="5"/>
       <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0.2836</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="C8" s="5"/>
       <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>0.1807</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>0.1967</v>
+        <v>0.19</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>0.2478</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0.3908</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>0.2033</v>
+        <v>0.2</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>0.2952</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
-        <v>0.13934</v>
+        <v>0.234</v>
       </c>
       <c r="C12" s="4" t="e">
         <f aca="false">AVERAGE(C2:C11)</f>
@@ -2452,7 +2436,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="n">
         <f aca="false">AVERAGE(F2:F11)</f>
-        <v>0.31179</v>
+        <v>0.2816</v>
       </c>
       <c r="G12" s="4" t="e">
         <f aca="false">AVERAGE(G2:G11)</f>
@@ -2482,159 +2466,159 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>0.1467</v>
+        <v>0.043</v>
       </c>
       <c r="C15" s="5"/>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.147</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.1492</v>
+        <v>0.114</v>
       </c>
       <c r="C16" s="5"/>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>0.125</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.1721</v>
+        <v>0.0941</v>
       </c>
       <c r="C17" s="5"/>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.194</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1412</v>
+        <v>0.0602</v>
       </c>
       <c r="C18" s="5"/>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>0.362</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>0.1906</v>
+        <v>0.0559</v>
       </c>
       <c r="C19" s="5"/>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>0.267</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2468</v>
+        <v>0.0468</v>
       </c>
       <c r="C20" s="5"/>
       <c r="E20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>0.146</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.3543</v>
+        <v>0.086</v>
       </c>
       <c r="C21" s="5"/>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>0.072</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>0.2978</v>
+        <v>0.0602</v>
       </c>
       <c r="C22" s="5"/>
       <c r="E22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>0.083</v>
+        <v>13.312</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>0.4226</v>
+        <v>0.0409</v>
       </c>
       <c r="C23" s="5"/>
       <c r="E23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>0.201</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>0.3629</v>
+        <v>0.0656</v>
       </c>
       <c r="C24" s="5"/>
       <c r="E24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0.087</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="n">
         <f aca="false">AVERAGE(B15:B24)</f>
-        <v>0.24842</v>
+        <v>0.06667</v>
       </c>
       <c r="C25" s="4" t="e">
         <f aca="false">AVERAGE(C15:C24)</f>
@@ -2643,7 +2627,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="n">
         <f aca="false">AVERAGE(F15:F24)</f>
-        <v>0.1684</v>
+        <v>1.8629</v>
       </c>
       <c r="G25" s="3" t="e">
         <f aca="false">AVERAGE(G15:G24)</f>
@@ -2659,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>2</v>
@@ -2676,151 +2660,151 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>0.00073</v>
+        <v>0.439</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.3722</v>
+        <v>0.3472</v>
       </c>
       <c r="G28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>0.00045</v>
+        <v>0.556</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3593</v>
+        <v>0.3509</v>
       </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>0.0021</v>
+        <v>6.818</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4731</v>
+        <v>0.4491</v>
       </c>
       <c r="G30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>0.095</v>
+        <v>13.258</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>0.3815</v>
+        <v>0.3139</v>
       </c>
       <c r="G31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>0.0012</v>
+        <v>1.735</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>0.3769</v>
+        <v>0.3852</v>
       </c>
       <c r="G32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>0.0027</v>
+        <v>7.242</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>0.3157</v>
+        <v>0.3204</v>
       </c>
       <c r="G33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>0.0047</v>
+        <v>2.676</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>0.2611</v>
+        <v>0.2907</v>
       </c>
       <c r="G34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>0.0018</v>
+        <v>0.153</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.3648</v>
+        <v>0.3944</v>
       </c>
       <c r="G35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>0.0022</v>
+        <v>0.609</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.2491</v>
+        <v>0.2713</v>
       </c>
       <c r="G36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>0.0098</v>
+        <v>4.952</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>0.3685</v>
+        <v>0.3704</v>
       </c>
       <c r="G37" s="5"/>
     </row>
@@ -2828,7 +2812,7 @@
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="n">
         <f aca="false">AVERAGE(B28:B37)</f>
-        <v>0.012068</v>
+        <v>3.8438</v>
       </c>
       <c r="C38" s="3" t="e">
         <f aca="false">AVERAGE(C28:C37)</f>
@@ -2837,7 +2821,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4" t="n">
         <f aca="false">AVERAGE(F28:F37)</f>
-        <v>0.35222</v>
+        <v>0.34935</v>
       </c>
       <c r="G38" s="4"/>
     </row>
@@ -2846,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>2</v>
@@ -2855,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>2</v>
@@ -2863,159 +2847,159 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>0.6018</v>
+        <v>0.5448</v>
       </c>
       <c r="C40" s="5"/>
       <c r="E40" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>1.217</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>0.6885</v>
+        <v>0.3678</v>
       </c>
       <c r="C41" s="5"/>
       <c r="E41" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>1.11</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>0.6379</v>
+        <v>0.4402</v>
       </c>
       <c r="C42" s="5"/>
       <c r="E42" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>0.945</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>0.6759</v>
+        <v>0.3816</v>
       </c>
       <c r="C43" s="5"/>
       <c r="E43" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>1.018</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>0.6184</v>
+        <v>0.4724</v>
       </c>
       <c r="C44" s="5"/>
       <c r="E44" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>1.32</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>0.7529</v>
+        <v>0.3287</v>
       </c>
       <c r="C45" s="5"/>
       <c r="E45" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>1.052</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>0.6747</v>
+        <v>0.4092</v>
       </c>
       <c r="C46" s="5"/>
       <c r="E46" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>1.113</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>0.6874</v>
+        <v>0.5759</v>
       </c>
       <c r="C47" s="5"/>
       <c r="E47" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>1.197</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B48" s="5" t="n">
-        <v>0.6517</v>
+        <v>0.4885</v>
       </c>
       <c r="C48" s="5"/>
       <c r="E48" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>0.968</v>
+        <v>82</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>0.265</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B49" s="5" t="n">
-        <v>0.5897</v>
+        <v>0.4839</v>
       </c>
       <c r="C49" s="5"/>
       <c r="E49" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>1.11</v>
+        <v>84</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>0.224</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="n">
         <f aca="false">AVERAGE(B40:B49)</f>
-        <v>0.65789</v>
+        <v>0.4493</v>
       </c>
       <c r="C50" s="4" t="e">
         <f aca="false">AVERAGE(C40:C49)</f>
@@ -3024,7 +3008,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="3" t="n">
         <f aca="false">AVERAGE(F40:F49)</f>
-        <v>1.105</v>
+        <v>0.3413</v>
       </c>
       <c r="G50" s="3" t="e">
         <f aca="false">AVERAGE(G40:G49)</f>
@@ -3033,7 +3017,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>2</v>
@@ -3048,140 +3032,124 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B52" s="5" t="n">
-        <v>0.5667</v>
+        <v>0.0295</v>
       </c>
       <c r="C52" s="5"/>
       <c r="E52" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" s="5" t="n">
-        <v>0.5333</v>
+        <v>87</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C53" s="5"/>
       <c r="E53" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="5" t="n">
-        <v>0.541</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="E54" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="5" t="n">
-        <v>0.4419</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="E55" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="5" t="n">
-        <v>0.5019</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="E56" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="5" t="n">
-        <v>0.5352</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="E57" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" s="5" t="n">
-        <v>0.4829</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="E58" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="5" t="n">
-        <v>0.5019</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="E59" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" s="5" t="n">
-        <v>0.5867</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="E60" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" s="5" t="n">
-        <v>0.4895</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="E61" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -3190,7 +3158,7 @@
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="n">
         <f aca="false">AVERAGE(B52:B61)</f>
-        <v>0.5181</v>
+        <v>0.0295</v>
       </c>
       <c r="C62" s="4"/>
       <c r="E62" s="4"/>
@@ -3205,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>2</v>
@@ -3214,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>2</v>
@@ -3222,165 +3190,141 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B64" s="5" t="n">
-        <v>0.4313</v>
+        <v>0.3657</v>
       </c>
       <c r="C64" s="5"/>
       <c r="E64" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>0.267</v>
+        <v>24.939</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B65" s="5" t="n">
-        <v>0.4768</v>
+        <v>0.3778</v>
       </c>
       <c r="C65" s="5"/>
       <c r="E65" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>0.291</v>
+        <v>18.699</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B66" s="5" t="n">
-        <v>0.5455</v>
+        <v>0.4222</v>
       </c>
       <c r="C66" s="5"/>
       <c r="E66" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F66" s="1" t="n">
-        <v>0.373</v>
+        <v>110</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B67" s="5" t="n">
-        <v>0.5556</v>
+        <v>0.3939</v>
       </c>
       <c r="C67" s="5"/>
       <c r="E67" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F67" s="1" t="n">
-        <v>0.299</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B68" s="5" t="n">
-        <v>0.6343</v>
+        <v>113</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C68" s="5"/>
       <c r="E68" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F68" s="1" t="n">
-        <v>0.181</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B69" s="5" t="n">
-        <v>0.5212</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="E69" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F69" s="1" t="n">
-        <v>0.125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B70" s="5" t="n">
-        <v>0.6905</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="E70" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F70" s="1" t="n">
-        <v>0.174</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B71" s="5" t="n">
-        <v>0.6111</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="E71" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F71" s="1" t="n">
-        <v>0.364</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B72" s="5" t="n">
-        <v>0.503</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="E72" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F72" s="1" t="n">
-        <v>0.299</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B73" s="5" t="n">
-        <v>0.6576</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="E73" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F73" s="1" t="n">
-        <v>0.348</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="F73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3"/>
       <c r="B74" s="4" t="n">
         <f aca="false">AVERAGE(B64:B73)</f>
-        <v>0.56269</v>
+        <v>0.3899</v>
       </c>
       <c r="C74" s="4"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="n">
         <f aca="false">AVERAGE(F64:F73)</f>
-        <v>0.2721</v>
+        <v>21.819</v>
       </c>
       <c r="G74" s="3" t="e">
         <f aca="false">AVERAGE(G64:G73)</f>
@@ -3392,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>2</v>
@@ -3401,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>2</v>
@@ -3409,169 +3353,167 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B76" s="5" t="n">
-        <v>0.446</v>
+        <v>0.5111</v>
       </c>
       <c r="C76" s="5"/>
       <c r="E76" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>0.2356</v>
+        <v>0.24</v>
       </c>
       <c r="G76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B77" s="5" t="n">
-        <v>0.8143</v>
+        <v>0.6508</v>
       </c>
       <c r="C77" s="5"/>
       <c r="E77" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>0.4267</v>
+        <v>0.4256</v>
       </c>
       <c r="G77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B78" s="5" t="n">
-        <v>0.554</v>
+        <v>0.5873</v>
       </c>
       <c r="C78" s="5"/>
       <c r="E78" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>0.1844</v>
+        <v>0.2244</v>
       </c>
       <c r="G78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B79" s="5" t="n">
-        <v>0.5556</v>
+        <v>0.581</v>
       </c>
       <c r="C79" s="5"/>
       <c r="E79" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>0.2989</v>
+        <v>0.2933</v>
       </c>
       <c r="G79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B80" s="5" t="n">
-        <v>0.6698</v>
+        <v>0.6079</v>
       </c>
       <c r="C80" s="5"/>
       <c r="E80" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>0.3744</v>
+        <v>0.3833</v>
       </c>
       <c r="G80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B81" s="5" t="n">
-        <v>0.5397</v>
+        <v>0.5222</v>
       </c>
       <c r="C81" s="5"/>
       <c r="E81" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>0.2489</v>
+        <v>0.32</v>
       </c>
       <c r="G81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B82" s="5" t="n">
-        <v>0.5508</v>
+        <v>0.5619</v>
       </c>
       <c r="C82" s="5"/>
       <c r="E82" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>0.2167</v>
+        <v>0.2467</v>
       </c>
       <c r="G82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B83" s="5" t="n">
-        <v>0.3429</v>
+        <v>0.373</v>
       </c>
       <c r="C83" s="5"/>
       <c r="E83" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>0.2567</v>
+        <v>0.2756</v>
       </c>
       <c r="G83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B84" s="5" t="n">
-        <v>0.3508</v>
+        <v>0.4937</v>
       </c>
       <c r="C84" s="5"/>
       <c r="E84" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F84" s="5" t="n">
-        <v>0.32</v>
+        <v>142</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="G84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B85" s="5" t="n">
-        <v>0.6206</v>
+        <v>0.573</v>
       </c>
       <c r="C85" s="5"/>
       <c r="E85" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F85" s="5" t="n">
-        <v>0.0967</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="F85" s="5"/>
       <c r="G85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3"/>
       <c r="B86" s="4" t="n">
         <f aca="false">AVERAGE(B76:B85)</f>
-        <v>0.54445</v>
+        <v>0.54619</v>
       </c>
       <c r="C86" s="4" t="e">
         <f aca="false">AVERAGE(C76:C85)</f>
@@ -3580,7 +3522,7 @@
       <c r="E86" s="3"/>
       <c r="F86" s="4" t="n">
         <f aca="false">AVERAGE(F76:F85)</f>
-        <v>0.2659</v>
+        <v>0.3011125</v>
       </c>
       <c r="G86" s="4" t="e">
         <f aca="false">AVERAGE(G76:G85)</f>
@@ -3592,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>2</v>
@@ -3601,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>2</v>
@@ -3609,169 +3551,149 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B88" s="5" t="n">
-        <v>0.5564</v>
+        <v>0.2821</v>
       </c>
       <c r="C88" s="5"/>
       <c r="E88" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>0.3778</v>
+        <v>0.2222</v>
       </c>
       <c r="G88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B89" s="5" t="n">
-        <v>0.459</v>
+        <v>0.2692</v>
       </c>
       <c r="C89" s="5"/>
       <c r="E89" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>0.1679</v>
+        <v>0.1086</v>
       </c>
       <c r="G89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B90" s="5" t="n">
-        <v>0.4385</v>
+        <v>0.3974</v>
       </c>
       <c r="C90" s="5"/>
       <c r="E90" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>0.2407</v>
+        <v>0.1926</v>
       </c>
       <c r="G90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B91" s="5" t="n">
-        <v>0.4179</v>
+        <v>0.2641</v>
       </c>
       <c r="C91" s="5"/>
       <c r="E91" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F91" s="5" t="n">
-        <v>0.242</v>
+        <v>152</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="G91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B92" s="5" t="n">
-        <v>0.5564</v>
+        <v>0.2615</v>
       </c>
       <c r="C92" s="5"/>
       <c r="E92" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F92" s="5" t="n">
-        <v>0.258</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="F92" s="5"/>
       <c r="G92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B93" s="5" t="n">
-        <v>0.4949</v>
+        <v>155</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C93" s="5"/>
       <c r="E93" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F93" s="5" t="n">
-        <v>0.2951</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F93" s="5"/>
       <c r="G93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B94" s="5" t="n">
-        <v>0.4231</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="E94" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F94" s="5" t="n">
-        <v>0.3938</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="F94" s="5"/>
       <c r="G94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B95" s="5" t="n">
-        <v>0.4769</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="E95" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F95" s="5" t="n">
-        <v>0.3642</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="F95" s="5"/>
       <c r="G95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B96" s="5" t="n">
-        <v>0.4795</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="E96" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F96" s="5" t="n">
-        <v>0.3358</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="F96" s="5"/>
       <c r="G96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B97" s="5" t="n">
-        <v>0.5282</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="E97" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F97" s="5" t="n">
-        <v>0.237</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="F97" s="5"/>
       <c r="G97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3"/>
       <c r="B98" s="4" t="n">
         <f aca="false">AVERAGE(B88:B97)</f>
-        <v>0.48308</v>
+        <v>0.29486</v>
       </c>
       <c r="C98" s="4" t="e">
         <f aca="false">AVERAGE(C88:C97)</f>
@@ -3780,7 +3702,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="4" t="n">
         <f aca="false">AVERAGE(F88:F97)</f>
-        <v>0.29123</v>
+        <v>0.174466666666667</v>
       </c>
       <c r="G98" s="4" t="e">
         <f aca="false">AVERAGE(G88:G97)</f>
@@ -3792,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>2</v>
@@ -3801,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>2</v>
@@ -3809,178 +3731,142 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B100" s="5" t="n">
-        <v>0.0435</v>
+        <v>165</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C100" s="5"/>
       <c r="E100" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F100" s="5" t="n">
-        <v>0.1676</v>
+        <v>166</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="G100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B101" s="5" t="n">
-        <v>0.0435</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="E101" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F101" s="5" t="n">
-        <v>0.0686</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B102" s="5" t="n">
-        <v>0.087</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="E102" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F102" s="5" t="n">
-        <v>0.0943</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="F102" s="5"/>
       <c r="G102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B103" s="5" t="n">
-        <v>0.0449</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="E103" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F103" s="5" t="n">
-        <v>0.1552</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F103" s="5"/>
       <c r="G103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B104" s="5" t="n">
-        <v>0.0087</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="E104" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F104" s="5" t="n">
-        <v>0.0981</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B105" s="5" t="n">
-        <v>0.0087</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="E105" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F105" s="5" t="n">
-        <v>0.1581</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="F105" s="5"/>
       <c r="G105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B106" s="5" t="n">
-        <v>0.0058</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="E106" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F106" s="5" t="n">
-        <v>0.1819</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="F106" s="5"/>
       <c r="G106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B107" s="5" t="n">
-        <v>0.0855</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="E107" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F107" s="5" t="n">
-        <v>0.0733</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F107" s="5"/>
       <c r="G107" s="5"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B108" s="5" t="n">
-        <v>0</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="E108" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F108" s="5" t="n">
-        <v>0.1029</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F108" s="5"/>
       <c r="G108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B109" s="5" t="n">
-        <v>0.013</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="E109" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F109" s="5" t="n">
-        <v>0.0829</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="F109" s="5"/>
       <c r="G109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3"/>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="4" t="e">
         <f aca="false">AVERAGE(B100:B109)</f>
-        <v>0.03406</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C110" s="4" t="e">
         <f aca="false">AVERAGE(C100:C109)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E110" s="3"/>
-      <c r="F110" s="4" t="n">
+      <c r="F110" s="4" t="e">
         <f aca="false">AVERAGE(F100:F109)</f>
-        <v>0.11829</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G110" s="4" t="e">
         <f aca="false">AVERAGE(G100:G109)</f>
@@ -3992,31 +3878,31 @@
         <v>0</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B112" s="5" t="n">
         <v>0.1608</v>
       </c>
       <c r="C112" s="5"/>
       <c r="E112" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F112" s="5" t="n">
         <v>0.2905</v>
@@ -4025,14 +3911,14 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B113" s="5" t="n">
         <v>0.2716</v>
       </c>
       <c r="C113" s="5"/>
       <c r="E113" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F113" s="5" t="n">
         <v>0.0071</v>
@@ -4041,14 +3927,14 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B114" s="5" t="n">
         <v>0.3402</v>
       </c>
       <c r="C114" s="5"/>
       <c r="E114" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F114" s="5" t="n">
         <v>0.1595</v>
@@ -4057,14 +3943,14 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B115" s="5" t="n">
         <v>0.4382</v>
       </c>
       <c r="C115" s="5"/>
       <c r="E115" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F115" s="5" t="n">
         <v>0.2833</v>
@@ -4073,14 +3959,14 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B116" s="5" t="n">
         <v>0.2559</v>
       </c>
       <c r="C116" s="5"/>
       <c r="E116" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F116" s="5" t="n">
         <v>0.3429</v>
@@ -4089,14 +3975,14 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B117" s="5" t="n">
         <v>0.1706</v>
       </c>
       <c r="C117" s="5"/>
       <c r="E117" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F117" s="5" t="n">
         <v>0.1905</v>
@@ -4105,14 +3991,14 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B118" s="5" t="n">
         <v>0.3529</v>
       </c>
       <c r="C118" s="5"/>
       <c r="E118" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F118" s="5" t="n">
         <v>0.0952</v>
@@ -4121,14 +4007,14 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B119" s="5" t="n">
         <v>0.2578</v>
       </c>
       <c r="C119" s="5"/>
       <c r="E119" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F119" s="5" t="n">
         <v>0.1119</v>
@@ -4137,14 +4023,14 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B120" s="5" t="n">
         <v>0.3392</v>
       </c>
       <c r="C120" s="5"/>
       <c r="E120" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F120" s="5" t="n">
         <v>0.2762</v>
@@ -4153,14 +4039,14 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B121" s="5" t="n">
         <v>0.2637</v>
       </c>
       <c r="C121" s="5"/>
       <c r="E121" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F121" s="5" t="n">
         <v>0.1167</v>
@@ -4192,30 +4078,30 @@
         <v>0</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>1.016</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F124" s="1" t="n">
         <v>2524.59</v>
@@ -4223,13 +4109,13 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>1.134</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F125" s="1" t="n">
         <v>2441.36</v>
@@ -4237,13 +4123,13 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>0.663</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F126" s="1" t="n">
         <v>2166.707</v>
@@ -4251,13 +4137,13 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>2.122</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F127" s="1" t="n">
         <v>3332.54</v>
@@ -4265,13 +4151,13 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>1.924</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F128" s="1" t="n">
         <v>3077.69</v>
@@ -4279,13 +4165,13 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>0.752</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F129" s="1" t="n">
         <v>2915.545</v>
@@ -4293,13 +4179,13 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>1.087</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F130" s="1" t="n">
         <v>2577.003</v>
@@ -4307,13 +4193,13 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>1.611</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F131" s="1" t="n">
         <v>2103.505</v>
@@ -4321,13 +4207,13 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>0.662</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F132" s="1" t="n">
         <v>2531.48</v>
@@ -4335,13 +4221,13 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>1.056</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F133" s="1" t="n">
         <v>1951.72</v>
@@ -4372,31 +4258,31 @@
         <v>0</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B136" s="5" t="n">
         <v>0.1992</v>
       </c>
       <c r="C136" s="5"/>
       <c r="E136" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F136" s="1" t="n">
         <v>0.385</v>
@@ -4404,14 +4290,14 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B137" s="5" t="n">
         <v>0.1707</v>
       </c>
       <c r="C137" s="5"/>
       <c r="E137" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F137" s="1" t="n">
         <v>0.914</v>
@@ -4419,14 +4305,14 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B138" s="5" t="n">
         <v>0.2277</v>
       </c>
       <c r="C138" s="5"/>
       <c r="E138" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F138" s="1" t="n">
         <v>0.343</v>
@@ -4434,14 +4320,14 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B139" s="5" t="n">
         <v>0.2036</v>
       </c>
       <c r="C139" s="5"/>
       <c r="E139" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F139" s="1" t="n">
         <v>0.215</v>
@@ -4449,14 +4335,14 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B140" s="5" t="n">
         <v>0.1361</v>
       </c>
       <c r="C140" s="5"/>
       <c r="E140" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F140" s="1" t="n">
         <v>21.553</v>
@@ -4464,14 +4350,14 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B141" s="5" t="n">
         <v>0.1791</v>
       </c>
       <c r="C141" s="5"/>
       <c r="E141" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F141" s="1" t="n">
         <v>0.152</v>
@@ -4479,14 +4365,14 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B142" s="5" t="n">
         <v>0.2289</v>
       </c>
       <c r="C142" s="5"/>
       <c r="E142" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F142" s="1" t="n">
         <v>24.423</v>
@@ -4494,14 +4380,14 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B143" s="5" t="n">
         <v>0.1438</v>
       </c>
       <c r="C143" s="5"/>
       <c r="E143" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F143" s="1" t="n">
         <v>5.169</v>
@@ -4509,14 +4395,14 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B144" s="5" t="n">
         <v>0.1876</v>
       </c>
       <c r="C144" s="5"/>
       <c r="E144" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F144" s="1" t="n">
         <v>0.185</v>
@@ -4524,14 +4410,14 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B145" s="5" t="n">
         <v>0.1747</v>
       </c>
       <c r="C145" s="5"/>
       <c r="E145" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F145" s="1" t="n">
         <v>1.668</v>
@@ -4562,147 +4448,147 @@
         <v>0</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>0.406</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>1.691</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>1.978</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>2.068</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>1.775</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>2.021</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>0.0719</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>1.184</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>1.351</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>1.852</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
@@ -4726,31 +4612,31 @@
         <v>0</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B160" s="5" t="n">
         <v>0.2649</v>
       </c>
       <c r="C160" s="5"/>
       <c r="E160" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F160" s="5" t="n">
         <v>0.2048</v>
@@ -4759,14 +4645,14 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B161" s="5" t="n">
         <v>0.1614</v>
       </c>
       <c r="C161" s="5"/>
       <c r="E161" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F161" s="5" t="n">
         <v>0.2697</v>
@@ -4775,14 +4661,14 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B162" s="5" t="n">
         <v>0.2667</v>
       </c>
       <c r="C162" s="5"/>
       <c r="E162" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F162" s="5" t="n">
         <v>0.2395</v>
@@ -4791,14 +4677,14 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B163" s="5" t="n">
         <v>0.107</v>
       </c>
       <c r="C163" s="5"/>
       <c r="E163" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F163" s="5" t="n">
         <v>0.236</v>
@@ -4807,14 +4693,14 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B164" s="5" t="n">
         <v>0.1842</v>
       </c>
       <c r="C164" s="5"/>
       <c r="E164" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F164" s="5" t="n">
         <v>0.1658</v>
@@ -4823,14 +4709,14 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B165" s="5" t="n">
         <v>0.1175</v>
       </c>
       <c r="C165" s="5"/>
       <c r="E165" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F165" s="5" t="n">
         <v>0.2513</v>
@@ -4839,14 +4725,14 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B166" s="5" t="n">
         <v>0.107</v>
       </c>
       <c r="C166" s="5"/>
       <c r="E166" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F166" s="5" t="n">
         <v>0.2285</v>
@@ -4855,14 +4741,14 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B167" s="5" t="n">
         <v>0.214</v>
       </c>
       <c r="C167" s="5"/>
       <c r="E167" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F167" s="5" t="n">
         <v>0.2632</v>
@@ -4871,14 +4757,14 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B168" s="5" t="n">
         <v>0.1456</v>
       </c>
       <c r="C168" s="5"/>
       <c r="E168" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F168" s="5" t="n">
         <v>0.257</v>
@@ -4887,17 +4773,17 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B169" s="5" t="n">
         <v>0.0772</v>
       </c>
       <c r="C169" s="5"/>
       <c r="E169" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="G169" s="5"/>
     </row>
@@ -4920,19 +4806,19 @@
         <v>0</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4995,7 +4881,7 @@
         <v>292</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="G175" s="5"/>
     </row>
@@ -5102,10 +4988,10 @@
         <v>0</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>0</v>
@@ -5175,7 +5061,7 @@
         <v>312</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="G187" s="5"/>
     </row>
@@ -5254,7 +5140,7 @@
         <v>323</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="C193" s="5"/>
       <c r="E193" s="1" t="s">
@@ -5401,7 +5287,7 @@
         <v>338</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="G202" s="5"/>
     </row>
@@ -5514,7 +5400,7 @@
         <v>349</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="C210" s="5"/>
       <c r="E210" s="1" t="s">
@@ -5549,7 +5435,7 @@
         <v>354</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="G212" s="5"/>
     </row>
@@ -5655,7 +5541,7 @@
         <v>366</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="G220" s="5"/>
     </row>
@@ -5678,7 +5564,7 @@
         <v>369</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="C222" s="5"/>
       <c r="E222" s="1" t="s">
@@ -6596,8 +6482,8 @@
   </sheetPr>
   <dimension ref="A1:XFD53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6626,23 +6512,21 @@
         <v>507</v>
       </c>
       <c r="B3" s="12" t="n">
-        <v>0.1393</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="B4" s="12" t="n">
-        <v>0.3118</v>
-      </c>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>509</v>
       </c>
       <c r="B5" s="12" t="n">
-        <v>0.2484</v>
+        <v>0.0667</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6650,7 +6534,7 @@
         <v>510</v>
       </c>
       <c r="B6" s="12" t="n">
-        <v>0.3522</v>
+        <v>0.3494</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6658,104 +6542,82 @@
         <v>511</v>
       </c>
       <c r="B7" s="12" t="n">
-        <v>0.6579</v>
+        <v>0.4493</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="B8" s="12" t="n">
-        <v>0.5181</v>
-      </c>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="B9" s="12" t="n">
-        <v>0.5627</v>
-      </c>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
         <v>514</v>
       </c>
       <c r="B10" s="12" t="n">
-        <v>0.5445</v>
+        <v>0.5462</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0.2659</v>
-      </c>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0.4831</v>
-      </c>
+      <c r="B12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0.2912</v>
-      </c>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0.0341</v>
-      </c>
+      <c r="B14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0.1183</v>
-      </c>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0.2851</v>
-      </c>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="B17" s="12" t="n">
-        <v>0.1874</v>
-      </c>
+      <c r="B17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="B18" s="12" t="n">
-        <v>0.1851</v>
-      </c>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="B19" s="12" t="n">
-        <v>0.1646</v>
-      </c>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
@@ -6767,9 +6629,7 @@
       <c r="A21" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="B21" s="12" t="n">
-        <v>0.0682</v>
-      </c>
+      <c r="B21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
@@ -6828,7 +6688,7 @@
     <row r="31" s="13" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="14" t="n">
         <f aca="false">AVERAGE(B3:B30)</f>
-        <v>0.300994444444444</v>
+        <v>0.32912</v>
       </c>
       <c r="XEY31" s="1"/>
       <c r="XEZ31" s="1"/>
@@ -6880,8 +6740,8 @@
         <v>539</v>
       </c>
       <c r="B37" s="9" t="n">
-        <f aca="false">0.1684/9</f>
-        <v>0.0187111111111111</v>
+        <f aca="false">1.8629/9</f>
+        <v>0.206988888888889</v>
       </c>
       <c r="C37" s="9" t="n">
         <v>9</v>
@@ -6892,8 +6752,8 @@
         <v>540</v>
       </c>
       <c r="B38" s="9" t="n">
-        <f aca="false">0.012068/4</f>
-        <v>0.003017</v>
+        <f aca="false">3.8438/4</f>
+        <v>0.96095</v>
       </c>
       <c r="C38" s="9" t="n">
         <v>4</v>
@@ -6904,8 +6764,8 @@
         <v>541</v>
       </c>
       <c r="B39" s="9" t="n">
-        <f aca="false">1.105/103</f>
-        <v>0.0107281553398058</v>
+        <f aca="false">0.3413/103</f>
+        <v>0.00331359223300971</v>
       </c>
       <c r="C39" s="9" t="n">
         <v>103</v>
@@ -6931,10 +6791,6 @@
       <c r="A42" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="B42" s="9" t="n">
-        <f aca="false">2562.214/50</f>
-        <v>51.24428</v>
-      </c>
       <c r="C42" s="9" t="n">
         <v>50</v>
       </c>
@@ -6943,10 +6799,6 @@
       <c r="A43" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="B43" s="9" t="n">
-        <f aca="false">0.2721/25</f>
-        <v>0.010884</v>
-      </c>
       <c r="C43" s="9" t="n">
         <v>25</v>
       </c>
@@ -6955,10 +6807,6 @@
       <c r="A44" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="B44" s="9" t="n">
-        <f aca="false">1.2027/99</f>
-        <v>0.0121484848484849</v>
-      </c>
       <c r="C44" s="9" t="n">
         <v>99</v>
       </c>
@@ -6967,10 +6815,6 @@
       <c r="A45" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="B45" s="9" t="n">
-        <f aca="false">5.5007/6</f>
-        <v>0.916783333333333</v>
-      </c>
       <c r="C45" s="9" t="n">
         <v>6</v>
       </c>
@@ -6986,10 +6830,6 @@
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
         <v>549</v>
-      </c>
-      <c r="B47" s="9" t="n">
-        <f aca="false">1.43979/13</f>
-        <v>0.110753076923077</v>
       </c>
       <c r="C47" s="9" t="n">
         <v>13</v>
@@ -7031,7 +6871,7 @@
       <c r="A52" s="13"/>
       <c r="B52" s="13" t="n">
         <f aca="false">AVERAGE(B34:B51)</f>
-        <v>6.54091314519448</v>
+        <v>0.3904174937073</v>
       </c>
       <c r="C52" s="13"/>
       <c r="XEY52" s="1"/>
@@ -7990,7 +7830,7 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A259" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M278" activeCellId="0" sqref="M278"/>
     </sheetView>
   </sheetViews>
@@ -8008,7 +7848,7 @@
         <v>579</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>580</v>
@@ -8026,7 +7866,7 @@
         <v>579</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>580</v>
@@ -8116,7 +7956,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>0.1</v>
@@ -8134,7 +7974,7 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.3874</v>
@@ -8154,7 +7994,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>0.1</v>
@@ -8172,7 +8012,7 @@
         <v>0.1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0.3386</v>
@@ -8192,7 +8032,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>0.0133</v>
@@ -8210,7 +8050,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>0.2575</v>
@@ -8230,7 +8070,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>0.1767</v>
@@ -8248,7 +8088,7 @@
         <v>0.2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.3478</v>
@@ -8268,7 +8108,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>0.1</v>
@@ -8286,7 +8126,7 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0.4063</v>
@@ -8306,7 +8146,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>0.12</v>
@@ -8324,7 +8164,7 @@
         <v>0.2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>0.2754</v>
@@ -8344,7 +8184,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>0</v>
@@ -8362,7 +8202,7 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.4435</v>
@@ -8382,7 +8222,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>0.2033</v>
@@ -8400,7 +8240,7 @@
         <v>0.2067</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0.3087</v>
@@ -8470,7 +8310,7 @@
         <v>579</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>580</v>
@@ -8488,7 +8328,7 @@
         <v>579</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>580</v>
@@ -8502,7 +8342,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>0.3194</v>
@@ -8520,7 +8360,7 @@
         <v>0.1231</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>0.151</v>
@@ -8540,7 +8380,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>0.3027</v>
@@ -8558,7 +8398,7 @@
         <v>0.0968</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>0.162</v>
@@ -8578,7 +8418,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>0.3667</v>
@@ -8596,7 +8436,7 @@
         <v>0.0968</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>0.213</v>
@@ -8616,7 +8456,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>0.3022</v>
@@ -8634,7 +8474,7 @@
         <v>0.0758</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>0.204</v>
@@ -8654,7 +8494,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>0.3667</v>
@@ -8672,7 +8512,7 @@
         <v>0.0645</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>0.309</v>
@@ -8692,7 +8532,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>0.2435</v>
@@ -8710,7 +8550,7 @@
         <v>0.0597</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>0.136</v>
@@ -8730,7 +8570,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="5" t="n">
         <v>0.3376</v>
@@ -8748,7 +8588,7 @@
         <v>0.1129</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>0.0962</v>
@@ -8768,7 +8608,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5" t="n">
         <v>0.2796</v>
@@ -8786,7 +8626,7 @@
         <v>0.0677</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>0.085</v>
@@ -8806,7 +8646,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="5" t="n">
         <v>0.4156</v>
@@ -8824,7 +8664,7 @@
         <v>0.0887</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>0.219</v>
@@ -8844,7 +8684,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="5" t="n">
         <v>0.4081</v>
@@ -8862,7 +8702,7 @@
         <v>0.0806</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>0.07</v>
@@ -8939,7 +8779,7 @@
         <v>579</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>580</v>
@@ -8957,7 +8797,7 @@
         <v>579</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>580</v>
@@ -8971,7 +8811,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="17" t="n">
         <v>0.0217</v>
@@ -8989,7 +8829,7 @@
         <v>0.0067</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.3528</v>
@@ -9009,7 +8849,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="17" t="n">
         <v>0.0167</v>
@@ -9027,7 +8867,7 @@
         <v>0.008</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" s="5" t="n">
         <v>0.3361</v>
@@ -9047,7 +8887,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="17" t="n">
         <v>0.0529</v>
@@ -9065,7 +8905,7 @@
         <v>0.0013</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I30" s="5" t="n">
         <v>0.4778</v>
@@ -9085,7 +8925,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="17" t="n">
         <v>0.0121</v>
@@ -9103,7 +8943,7 @@
         <v>0.00069</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I31" s="5" t="n">
         <v>0.3694</v>
@@ -9123,7 +8963,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" s="17" t="n">
         <v>0.0043</v>
@@ -9141,7 +8981,7 @@
         <v>0.0081</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I32" s="5" t="n">
         <v>0.4972</v>
@@ -9161,7 +9001,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" s="17" t="n">
         <v>0.0249</v>
@@ -9179,7 +9019,7 @@
         <v>0.0122</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I33" s="5" t="n">
         <v>0.3352</v>
@@ -9199,7 +9039,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B34" s="17" t="n">
         <v>0.2028</v>
@@ -9217,7 +9057,7 @@
         <v>0.0038</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.3176</v>
@@ -9237,7 +9077,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>0.0066</v>
@@ -9255,7 +9095,7 @@
         <v>0.0038</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I35" s="5" t="n">
         <v>0.3546</v>
@@ -9275,7 +9115,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>0.0246</v>
@@ -9293,7 +9133,7 @@
         <v>0.0076</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I36" s="5" t="n">
         <v>0.25</v>
@@ -9313,7 +9153,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" s="17" t="n">
         <v>0.1431</v>
@@ -9331,7 +9171,7 @@
         <v>0.012</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I37" s="5" t="n">
         <v>0.4315</v>
@@ -9401,7 +9241,7 @@
         <v>579</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>580</v>
@@ -9419,7 +9259,7 @@
         <v>579</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>580</v>
@@ -9433,7 +9273,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B40" s="5" t="n">
         <v>0.6759</v>
@@ -9451,7 +9291,7 @@
         <v>0.5954</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>1.341</v>
@@ -9471,7 +9311,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B41" s="5" t="n">
         <v>0.6655</v>
@@ -9489,7 +9329,7 @@
         <v>0.4161</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>1.109</v>
@@ -9509,7 +9349,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B42" s="5" t="n">
         <v>0.6448</v>
@@ -9527,7 +9367,7 @@
         <v>0.4034</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>0.877</v>
@@ -9547,7 +9387,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B43" s="5" t="n">
         <v>0.6851</v>
@@ -9565,7 +9405,7 @@
         <v>0.4218</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I43" s="1" t="n">
         <v>1.082</v>
@@ -9585,7 +9425,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B44" s="5" t="n">
         <v>0.6276</v>
@@ -9603,7 +9443,7 @@
         <v>0.4782</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I44" s="1" t="n">
         <v>1.411</v>
@@ -9623,7 +9463,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B45" s="5" t="n">
         <v>0.754</v>
@@ -9641,7 +9481,7 @@
         <v>0.2989</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>1.213</v>
@@ -9661,7 +9501,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B46" s="5" t="n">
         <v>0.7218</v>
@@ -9679,7 +9519,7 @@
         <v>0.4782</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I46" s="1" t="n">
         <v>1.241</v>
@@ -9699,7 +9539,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B47" s="5" t="n">
         <v>0.6724</v>
@@ -9717,7 +9557,7 @@
         <v>0.508</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>1.097</v>
@@ -9737,7 +9577,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B48" s="5" t="n">
         <v>0.6851</v>
@@ -9755,7 +9595,7 @@
         <v>0.431</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I48" s="1" t="n">
         <v>1.045</v>
@@ -9775,7 +9615,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B49" s="5" t="n">
         <v>0.5782</v>
@@ -9793,7 +9633,7 @@
         <v>0.408</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I49" s="1" t="n">
         <v>1.113</v>
@@ -9860,7 +9700,7 @@
         <v>579</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>580</v>
@@ -9882,7 +9722,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B52" s="5" t="n">
         <v>0.5629</v>
@@ -9900,7 +9740,7 @@
         <v>0.0629</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -9910,7 +9750,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="5" t="n">
         <v>0.6895</v>
@@ -9928,7 +9768,7 @@
         <v>0.1286</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -9938,7 +9778,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B54" s="5" t="n">
         <v>0.6324</v>
@@ -9956,7 +9796,7 @@
         <v>0.1371</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
@@ -9966,7 +9806,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="5" t="n">
         <v>0.5695</v>
@@ -9984,7 +9824,7 @@
         <v>0.0743</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -9994,7 +9834,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="5" t="n">
         <v>0.6105</v>
@@ -10012,7 +9852,7 @@
         <v>0.1581</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -10022,7 +9862,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B57" s="5" t="n">
         <v>0.7019</v>
@@ -10040,7 +9880,7 @@
         <v>0.06</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -10050,7 +9890,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B58" s="5" t="n">
         <v>0.6714</v>
@@ -10068,7 +9908,7 @@
         <v>0.1438</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -10078,7 +9918,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B59" s="5" t="n">
         <v>0.5962</v>
@@ -10096,7 +9936,7 @@
         <v>0.141</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -10106,7 +9946,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B60" s="5" t="n">
         <v>0.5895</v>
@@ -10124,7 +9964,7 @@
         <v>0.0876</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -10134,7 +9974,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B61" s="5" t="n">
         <v>0.6105</v>
@@ -10152,7 +9992,7 @@
         <v>0.0867</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
@@ -10200,7 +10040,7 @@
         <v>579</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>580</v>
@@ -10218,7 +10058,7 @@
         <v>579</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>580</v>
@@ -10232,7 +10072,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B64" s="5" t="n">
         <v>0.4737</v>
@@ -10250,7 +10090,7 @@
         <v>0.4252</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I64" s="1" t="n">
         <v>0.307</v>
@@ -10270,7 +10110,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B65" s="5" t="n">
         <v>0.5131</v>
@@ -10288,7 +10128,7 @@
         <v>0.4232</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I65" s="1" t="n">
         <v>0.301</v>
@@ -10308,7 +10148,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B66" s="5" t="n">
         <v>0.5293</v>
@@ -10326,7 +10166,7 @@
         <v>0.6182</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I66" s="1" t="n">
         <v>1.049</v>
@@ -10346,7 +10186,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B67" s="5" t="n">
         <v>0.6061</v>
@@ -10364,7 +10204,7 @@
         <v>0.6444</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I67" s="1" t="n">
         <v>0.354</v>
@@ -10384,7 +10224,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B68" s="5" t="n">
         <v>0.6313</v>
@@ -10402,7 +10242,7 @@
         <v>0.3808</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I68" s="1" t="n">
         <v>0.234</v>
@@ -10422,7 +10262,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B69" s="5" t="n">
         <v>0.5747</v>
@@ -10440,7 +10280,7 @@
         <v>0.6303</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I69" s="1" t="n">
         <v>0.131</v>
@@ -10460,7 +10300,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B70" s="5" t="n">
         <v>0.6919</v>
@@ -10478,7 +10318,7 @@
         <v>0.6384</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I70" s="1" t="n">
         <v>0.179</v>
@@ -10498,7 +10338,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B71" s="5" t="n">
         <v>0.6667</v>
@@ -10516,7 +10356,7 @@
         <v>0.5788</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I71" s="1" t="n">
         <v>0.431</v>
@@ -10536,7 +10376,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B72" s="5" t="n">
         <v>0.5838</v>
@@ -10554,7 +10394,7 @@
         <v>0.5242</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I72" s="1" t="n">
         <v>0.297</v>
@@ -10574,7 +10414,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B73" s="5" t="n">
         <v>0.6879</v>
@@ -10592,7 +10432,7 @@
         <v>0.6051</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I73" s="1" t="n">
         <v>0.377</v>
@@ -10662,7 +10502,7 @@
         <v>579</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>580</v>
@@ -10680,7 +10520,7 @@
         <v>579</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K75" s="4" t="s">
         <v>580</v>
@@ -10694,7 +10534,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B76" s="5" t="n">
         <v>0.3778</v>
@@ -10712,7 +10552,7 @@
         <v>0.454</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I76" s="5" t="n">
         <v>0.2278</v>
@@ -10732,7 +10572,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B77" s="5" t="n">
         <v>0.7683</v>
@@ -10750,7 +10590,7 @@
         <v>0.8127</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I77" s="5" t="n">
         <v>0.3533</v>
@@ -10770,7 +10610,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B78" s="5" t="n">
         <v>0.6206</v>
@@ -10788,7 +10628,7 @@
         <v>0.6016</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I78" s="5" t="n">
         <v>0.1689</v>
@@ -10808,7 +10648,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B79" s="5" t="n">
         <v>0.5619</v>
@@ -10826,7 +10666,7 @@
         <v>0.5667</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I79" s="5" t="n">
         <v>0.27</v>
@@ -10846,7 +10686,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B80" s="5" t="n">
         <v>0.5476</v>
@@ -10864,7 +10704,7 @@
         <v>0.6175</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I80" s="5" t="n">
         <v>0.3522</v>
@@ -10884,7 +10724,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B81" s="5" t="n">
         <v>0.5159</v>
@@ -10902,7 +10742,7 @@
         <v>0.4857</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I81" s="5" t="n">
         <v>0.23</v>
@@ -10922,7 +10762,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B82" s="5" t="n">
         <v>0.3984</v>
@@ -10940,7 +10780,7 @@
         <v>0.5921</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I82" s="5" t="n">
         <v>0.24</v>
@@ -10960,7 +10800,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B83" s="5" t="n">
         <v>0.3587</v>
@@ -10978,7 +10818,7 @@
         <v>0.3111</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I83" s="5" t="n">
         <v>0.2944</v>
@@ -10998,7 +10838,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B84" s="5" t="n">
         <v>0.3222</v>
@@ -11016,7 +10856,7 @@
         <v>0.4079</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I84" s="5" t="n">
         <v>0.3056</v>
@@ -11036,7 +10876,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B85" s="5" t="n">
         <v>0.5444</v>
@@ -11054,7 +10894,7 @@
         <v>0.6238</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I85" s="5" t="n">
         <v>0.0678</v>
@@ -11124,7 +10964,7 @@
         <v>579</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>580</v>
@@ -11142,7 +10982,7 @@
         <v>579</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>580</v>
@@ -11156,7 +10996,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B88" s="5" t="n">
         <v>0.6103</v>
@@ -11174,7 +11014,7 @@
         <v>0.5128</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I88" s="5" t="n">
         <v>0.4086</v>
@@ -11194,7 +11034,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B89" s="5" t="n">
         <v>0.6744</v>
@@ -11212,7 +11052,7 @@
         <v>0.2641</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I89" s="5" t="n">
         <v>0.1716</v>
@@ -11232,7 +11072,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B90" s="5" t="n">
         <v>0.6103</v>
@@ -11250,7 +11090,7 @@
         <v>0.2897</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I90" s="5" t="n">
         <v>0.3037</v>
@@ -11270,7 +11110,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B91" s="5" t="n">
         <v>0.7333</v>
@@ -11288,7 +11128,7 @@
         <v>0.2385</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I91" s="5" t="n">
         <v>0.284</v>
@@ -11308,7 +11148,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B92" s="5" t="n">
         <v>0.6128</v>
@@ -11326,7 +11166,7 @@
         <v>0.3744</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I92" s="5" t="n">
         <v>0.2728</v>
@@ -11346,7 +11186,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B93" s="5" t="n">
         <v>0.6154</v>
@@ -11364,7 +11204,7 @@
         <v>0.3846</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I93" s="5" t="n">
         <v>0.2975</v>
@@ -11384,7 +11224,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B94" s="5" t="n">
         <v>0.6051</v>
@@ -11402,7 +11242,7 @@
         <v>0.1821</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I94" s="5" t="n">
         <v>0.4012</v>
@@ -11422,7 +11262,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B95" s="5" t="n">
         <v>0.6718</v>
@@ -11440,7 +11280,7 @@
         <v>0.3846</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I95" s="5" t="n">
         <v>0.3383</v>
@@ -11460,7 +11300,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B96" s="5" t="n">
         <v>0.6821</v>
@@ -11478,7 +11318,7 @@
         <v>0.0872</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I96" s="5" t="n">
         <v>0.3765</v>
@@ -11498,7 +11338,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B97" s="5" t="n">
         <v>0.6205</v>
@@ -11516,7 +11356,7 @@
         <v>0.4872</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I97" s="5" t="n">
         <v>0.2654</v>
@@ -11586,7 +11426,7 @@
         <v>579</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>580</v>
@@ -11604,7 +11444,7 @@
         <v>579</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K99" s="7" t="s">
         <v>580</v>
@@ -11618,7 +11458,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B100" s="5" t="n">
         <v>0.0449</v>
@@ -11636,7 +11476,7 @@
         <v>0.0435</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I100" s="5" t="n">
         <v>0.1905</v>
@@ -11656,7 +11496,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B101" s="5" t="n">
         <v>0.0275</v>
@@ -11674,7 +11514,7 @@
         <v>0.0246</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I101" s="5" t="n">
         <v>0.0781</v>
@@ -11694,7 +11534,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B102" s="5" t="n">
         <v>0.1</v>
@@ -11712,7 +11552,7 @@
         <v>0.087</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I102" s="5" t="n">
         <v>0.1086</v>
@@ -11732,7 +11572,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B103" s="5" t="n">
         <v>0.0899</v>
@@ -11750,7 +11590,7 @@
         <v>0.0435</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I103" s="5" t="n">
         <v>0.2314</v>
@@ -11770,7 +11610,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B104" s="5" t="n">
         <v>0.0739</v>
@@ -11788,7 +11628,7 @@
         <v>0.0058</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I104" s="5" t="n">
         <v>0.1943</v>
@@ -11808,7 +11648,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B105" s="5" t="n">
         <v>0.0406</v>
@@ -11826,7 +11666,7 @@
         <v>0.0348</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I105" s="5" t="n">
         <v>0.1581</v>
@@ -11846,7 +11686,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B106" s="5" t="n">
         <v>0.0638</v>
@@ -11864,7 +11704,7 @@
         <v>0.0435</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I106" s="5" t="n">
         <v>0.2495</v>
@@ -11884,7 +11724,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B107" s="5" t="n">
         <v>0.071</v>
@@ -11902,7 +11742,7 @@
         <v>0.0435</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I107" s="5" t="n">
         <v>0.1048</v>
@@ -11922,7 +11762,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B108" s="5" t="n">
         <v>0.0188</v>
@@ -11940,7 +11780,7 @@
         <v>0</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I108" s="5" t="n">
         <v>0.181</v>
@@ -11960,7 +11800,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B109" s="5" t="n">
         <v>0.0826</v>
@@ -11978,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I109" s="5" t="n">
         <v>0.1257</v>
@@ -12048,7 +11888,7 @@
         <v>579</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>580</v>
@@ -12066,7 +11906,7 @@
         <v>579</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K111" s="4" t="s">
         <v>580</v>
@@ -12080,7 +11920,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B112" s="5" t="n">
         <v>0.2961</v>
@@ -12098,7 +11938,7 @@
         <v>0.2843</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I112" s="5" t="n">
         <v>0.2024</v>
@@ -12118,7 +11958,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B113" s="5" t="n">
         <v>0.2431</v>
@@ -12136,7 +11976,7 @@
         <v>0.3059</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I113" s="5" t="n">
         <v>0.181</v>
@@ -12156,7 +11996,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B114" s="5" t="n">
         <v>0.3284</v>
@@ -12174,7 +12014,7 @@
         <v>0.2627</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I114" s="5" t="n">
         <v>0.2452</v>
@@ -12194,7 +12034,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B115" s="5" t="n">
         <v>0.4294</v>
@@ -12212,7 +12052,7 @@
         <v>0.4412</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I115" s="5" t="n">
         <v>0.3167</v>
@@ -12232,7 +12072,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B116" s="5" t="n">
         <v>0.3206</v>
@@ -12250,7 +12090,7 @@
         <v>0.2686</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I116" s="5" t="n">
         <v>0.4238</v>
@@ -12270,7 +12110,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B117" s="5" t="n">
         <v>0.2539</v>
@@ -12288,7 +12128,7 @@
         <v>0.2412</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I117" s="5" t="n">
         <v>0.1643</v>
@@ -12308,7 +12148,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B118" s="5" t="n">
         <v>0.3265</v>
@@ -12326,7 +12166,7 @@
         <v>0.3275</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I118" s="5" t="n">
         <v>0.1571</v>
@@ -12346,7 +12186,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B119" s="5" t="n">
         <v>0.2559</v>
@@ -12364,7 +12204,7 @@
         <v>0.3069</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I119" s="5" t="n">
         <v>0.2095</v>
@@ -12384,7 +12224,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B120" s="5" t="n">
         <v>0.401</v>
@@ -12402,7 +12242,7 @@
         <v>0.3657</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I120" s="5" t="n">
         <v>0.3595</v>
@@ -12422,7 +12262,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B121" s="5" t="n">
         <v>0.2294</v>
@@ -12440,7 +12280,7 @@
         <v>0.2657</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I121" s="5" t="n">
         <v>0.2714</v>
@@ -12510,7 +12350,7 @@
         <v>579</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>580</v>
@@ -12528,7 +12368,7 @@
         <v>579</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K123" s="3" t="s">
         <v>580</v>
@@ -12542,7 +12382,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>2.39</v>
@@ -12560,7 +12400,7 @@
         <v>0.6</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I124" s="1" t="n">
         <v>2964.41</v>
@@ -12580,7 +12420,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>2.39</v>
@@ -12598,7 +12438,7 @@
         <v>0.259</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I125" s="1" t="n">
         <v>2634.8</v>
@@ -12618,7 +12458,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>1.576</v>
@@ -12636,7 +12476,7 @@
         <v>0.244</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I126" s="1" t="n">
         <v>2533.531</v>
@@ -12656,7 +12496,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>3.23</v>
@@ -12674,7 +12514,7 @@
         <v>2.497</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I127" s="1" t="n">
         <v>3798.65</v>
@@ -12694,7 +12534,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>3.182</v>
@@ -12712,7 +12552,7 @@
         <v>0.793</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I128" s="1" t="n">
         <v>3492.17</v>
@@ -12732,7 +12572,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>1.38</v>
@@ -12750,7 +12590,7 @@
         <v>0.261</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I129" s="1" t="n">
         <v>3424.06</v>
@@ -12770,7 +12610,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>3.016</v>
@@ -12788,7 +12628,7 @@
         <v>1.002</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I130" s="1" t="n">
         <v>2832.21</v>
@@ -12808,7 +12648,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>2.717</v>
@@ -12826,7 +12666,7 @@
         <v>0.524</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I131" s="1" t="n">
         <v>2236.59</v>
@@ -12846,7 +12686,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>1.602</v>
@@ -12864,7 +12704,7 @@
         <v>0.13</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I132" s="1" t="n">
         <v>2997.77</v>
@@ -12884,7 +12724,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>2.02</v>
@@ -12902,7 +12742,7 @@
         <v>0.694</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I133" s="1" t="n">
         <v>1926.67</v>
@@ -12972,7 +12812,7 @@
         <v>579</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>580</v>
@@ -12990,7 +12830,7 @@
         <v>579</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K135" s="3" t="s">
         <v>580</v>
@@ -13004,7 +12844,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B136" s="5" t="n">
         <v>0.2137</v>
@@ -13022,7 +12862,7 @@
         <v>0.192</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I136" s="1" t="n">
         <v>4.169</v>
@@ -13042,7 +12882,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B137" s="5" t="n">
         <v>0.2141</v>
@@ -13060,7 +12900,7 @@
         <v>0.1394</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I137" s="1" t="n">
         <v>1.97</v>
@@ -13080,7 +12920,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B138" s="5" t="n">
         <v>0.2261</v>
@@ -13098,7 +12938,7 @@
         <v>0.188</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I138" s="1" t="n">
         <v>4.78</v>
@@ -13118,7 +12958,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B139" s="5" t="n">
         <v>0.2157</v>
@@ -13136,7 +12976,7 @@
         <v>0.1695</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I139" s="1" t="n">
         <v>4.632</v>
@@ -13156,7 +12996,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B140" s="5" t="n">
         <v>0.1743</v>
@@ -13174,7 +13014,7 @@
         <v>0.1325</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I140" s="1" t="n">
         <v>3.05</v>
@@ -13194,7 +13034,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B141" s="5" t="n">
         <v>0.2096</v>
@@ -13212,7 +13052,7 @@
         <v>0.1566</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I141" s="1" t="n">
         <v>90.827</v>
@@ -13232,7 +13072,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B142" s="5" t="n">
         <v>0.3217</v>
@@ -13250,7 +13090,7 @@
         <v>0.1618</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I142" s="1" t="n">
         <v>1.93</v>
@@ -13270,7 +13110,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B143" s="5" t="n">
         <v>0.1614</v>
@@ -13288,7 +13128,7 @@
         <v>0.1466</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I143" s="1" t="n">
         <v>7.87</v>
@@ -13308,7 +13148,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B144" s="5" t="n">
         <v>0.2072</v>
@@ -13326,7 +13166,7 @@
         <v>0.1735</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I144" s="1" t="n">
         <v>0.915</v>
@@ -13346,7 +13186,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B145" s="5" t="n">
         <v>0.1944</v>
@@ -13364,7 +13204,7 @@
         <v>0.1369</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I145" s="1" t="n">
         <v>0.668</v>
@@ -13434,7 +13274,7 @@
         <v>579</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>580</v>
@@ -13452,7 +13292,7 @@
         <v>579</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K147" s="4" t="s">
         <v>580</v>
@@ -13466,7 +13306,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>16.62</v>
@@ -13484,7 +13324,7 @@
         <v>0.108</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I148" s="5" t="n">
         <v>0.1207</v>
@@ -13504,7 +13344,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>9</v>
@@ -13522,7 +13362,7 @@
         <v>0.037</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I149" s="5" t="n">
         <v>0.0859</v>
@@ -13542,7 +13382,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>6.708</v>
@@ -13560,7 +13400,7 @@
         <v>0.11</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I150" s="5" t="n">
         <v>0.0986</v>
@@ -13580,7 +13420,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>43.78</v>
@@ -13598,7 +13438,7 @@
         <v>0.086</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I151" s="5" t="n">
         <v>0.1243</v>
@@ -13618,7 +13458,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>41.836</v>
@@ -13636,7 +13476,7 @@
         <v>0.122</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I152" s="5" t="n">
         <v>0.0951</v>
@@ -13656,7 +13496,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>36.76</v>
@@ -13674,7 +13514,7 @@
         <v>0.0623</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I153" s="5" t="n">
         <v>0.0932</v>
@@ -13694,7 +13534,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>85.1</v>
@@ -13712,7 +13552,7 @@
         <v>0.0366</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I154" s="5" t="n">
         <v>0.0841</v>
@@ -13732,7 +13572,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>61.92</v>
@@ -13750,7 +13590,7 @@
         <v>0.079</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I155" s="5" t="n">
         <v>0.0914</v>
@@ -13759,18 +13599,18 @@
         <v>0.0679</v>
       </c>
       <c r="K155" s="5" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="L155" s="5" t="n">
         <v>0.0697</v>
       </c>
       <c r="M155" s="5" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>10.19</v>
@@ -13788,25 +13628,25 @@
         <v>0.0956</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I156" s="5" t="n">
         <v>0.1079</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="K156" s="5"/>
       <c r="L156" s="5" t="n">
         <v>0.0675</v>
       </c>
       <c r="M156" s="5" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>6.06</v>
@@ -13824,13 +13664,13 @@
         <v>0.051</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I157" s="5" t="n">
         <v>0.1079</v>
       </c>
       <c r="J157" s="5" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="K157" s="5"/>
       <c r="L157" s="5" t="n">
@@ -13892,7 +13732,7 @@
         <v>579</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>580</v>
@@ -13910,7 +13750,7 @@
         <v>579</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K159" s="4" t="s">
         <v>580</v>
@@ -13924,7 +13764,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B160" s="5" t="n">
         <v>0.293</v>
@@ -13942,7 +13782,7 @@
         <v>0.2596</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I160" s="5" t="n">
         <v>0.2342</v>
@@ -13962,7 +13802,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B161" s="5" t="n">
         <v>0.186</v>
@@ -13980,7 +13820,7 @@
         <v>0.1579</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I161" s="5" t="n">
         <v>0.2846</v>
@@ -14000,7 +13840,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B162" s="5" t="n">
         <v>0.2105</v>
@@ -14018,7 +13858,7 @@
         <v>0.214</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I162" s="5" t="n">
         <v>0.2671</v>
@@ -14038,7 +13878,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B163" s="5" t="n">
         <v>0.1035</v>
@@ -14056,7 +13896,7 @@
         <v>0.0491</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I163" s="5" t="n">
         <v>0.2386</v>
@@ -14076,7 +13916,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B164" s="5" t="n">
         <v>0.2281</v>
@@ -14094,7 +13934,7 @@
         <v>0.1807</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I164" s="5" t="n">
         <v>0.2096</v>
@@ -14114,7 +13954,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B165" s="5" t="n">
         <v>0.1632</v>
@@ -14132,7 +13972,7 @@
         <v>0.107</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I165" s="5" t="n">
         <v>0.2566</v>
@@ -14152,7 +13992,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B166" s="5" t="n">
         <v>0.086</v>
@@ -14170,7 +14010,7 @@
         <v>0.0404</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I166" s="5" t="n">
         <v>0.2325</v>
@@ -14190,7 +14030,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B167" s="5" t="n">
         <v>0.1965</v>
@@ -14208,7 +14048,7 @@
         <v>0.1053</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I167" s="5" t="n">
         <v>0.2838</v>
@@ -14228,7 +14068,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B168" s="5" t="n">
         <v>0.1439</v>
@@ -14246,7 +14086,7 @@
         <v>0.0667</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I168" s="5" t="n">
         <v>0.2684</v>
@@ -14266,7 +14106,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B169" s="5" t="n">
         <v>0.1298</v>
@@ -14284,7 +14124,7 @@
         <v>0.0719</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I169" s="5" t="n">
         <v>0.3022</v>
@@ -14354,7 +14194,7 @@
         <v>579</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>580</v>
@@ -14372,7 +14212,7 @@
         <v>579</v>
       </c>
       <c r="J171" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K171" s="8" t="s">
         <v>580</v>
@@ -14816,7 +14656,7 @@
         <v>579</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="4" t="s">
@@ -14830,7 +14670,7 @@
         <v>579</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K183" s="4" t="s">
         <v>580</v>
@@ -14956,7 +14796,7 @@
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="F187" s="5"/>
       <c r="H187" s="1" t="s">
@@ -15134,7 +14974,7 @@
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="5" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -15204,7 +15044,7 @@
         <v>579</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>580</v>
@@ -15222,7 +15062,7 @@
         <v>579</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K195" s="4" t="s">
         <v>580</v>
@@ -15564,7 +15404,7 @@
         <v>0.2433</v>
       </c>
       <c r="J204" s="5" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="K204" s="5" t="n">
         <v>0.25</v>
@@ -15587,7 +15427,7 @@
         <v>0.6329</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="E205" s="5" t="n">
         <v>0.6913</v>
@@ -15602,7 +15442,7 @@
         <v>0.3133</v>
       </c>
       <c r="J205" s="5" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="K205" s="5" t="n">
         <v>0.2</v>
@@ -15666,7 +15506,7 @@
         <v>579</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>580</v>
@@ -15684,7 +15524,7 @@
         <v>579</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K207" s="2" t="s">
         <v>580</v>
@@ -16128,7 +15968,7 @@
         <v>579</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>580</v>
@@ -16146,7 +15986,7 @@
         <v>579</v>
       </c>
       <c r="J219" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K219" s="4" t="s">
         <v>580</v>
@@ -16590,7 +16430,7 @@
         <v>579</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>580</v>
@@ -16608,7 +16448,7 @@
         <v>579</v>
       </c>
       <c r="J231" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K231" s="4" t="s">
         <v>580</v>
@@ -17052,7 +16892,7 @@
         <v>579</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D243" s="8" t="s">
         <v>580</v>
@@ -17070,7 +16910,7 @@
         <v>579</v>
       </c>
       <c r="J243" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K243" s="4" t="s">
         <v>580</v>
@@ -17514,7 +17354,7 @@
         <v>579</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>580</v>
@@ -17532,7 +17372,7 @@
         <v>579</v>
       </c>
       <c r="J255" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K255" s="4" t="s">
         <v>580</v>
@@ -17649,7 +17489,7 @@
         <v>2327.56</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="L258" s="1" t="n">
         <v>2127.218</v>
@@ -17687,7 +17527,7 @@
         <v>2124.055</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="L259" s="1" t="n">
         <v>2053.48</v>
@@ -17719,7 +17559,7 @@
         <v>414</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="K260" s="1" t="n">
         <v>2315.79</v>
@@ -17754,7 +17594,7 @@
         <v>416</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="K261" s="1" t="n">
         <v>2437.59</v>
@@ -17792,7 +17632,7 @@
         <v>1541.508</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="L262" s="1" t="n">
         <v>1918.55</v>
@@ -17824,7 +17664,7 @@
         <v>420</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="K263" s="1" t="n">
         <v>2344.17</v>
@@ -17859,7 +17699,7 @@
         <v>422</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="K264" s="1" t="n">
         <v>1995.07</v>
@@ -17958,7 +17798,7 @@
         <v>579</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>580</v>
@@ -17976,7 +17816,7 @@
         <v>604</v>
       </c>
       <c r="J267" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K267" s="4" t="s">
         <v>580</v>
@@ -18387,7 +18227,7 @@
         <v>579</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>580</v>
@@ -18405,7 +18245,7 @@
         <v>579</v>
       </c>
       <c r="J279" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K279" s="4" t="s">
         <v>580</v>
@@ -18846,7 +18686,7 @@
         <v>579</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>580</v>
@@ -18864,7 +18704,7 @@
         <v>579</v>
       </c>
       <c r="J292" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K292" s="4" t="s">
         <v>580</v>
@@ -19308,7 +19148,7 @@
         <v>579</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>580</v>
@@ -19326,7 +19166,7 @@
         <v>579</v>
       </c>
       <c r="J305" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K305" s="4" t="s">
         <v>580</v>
@@ -19728,7 +19568,7 @@
         <v>579</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>580</v>
@@ -19746,7 +19586,7 @@
         <v>579</v>
       </c>
       <c r="J318" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K318" s="4" t="s">
         <v>580</v>
@@ -19801,7 +19641,7 @@
         <v>37999.52</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>428</v>
@@ -20079,7 +19919,7 @@
         <v>579</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>580</v>
@@ -20097,7 +19937,7 @@
         <v>579</v>
       </c>
       <c r="J331" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K331" s="4" t="s">
         <v>580</v>
@@ -20505,7 +20345,7 @@
         <v>579</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>580</v>
@@ -20523,7 +20363,7 @@
         <v>579</v>
       </c>
       <c r="J344" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K344" s="4" t="s">
         <v>580</v>
@@ -20608,7 +20448,7 @@
         <v>71.316</v>
       </c>
       <c r="M346" s="1" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
